--- a/Buc-ee's Sales Import-Sid.xlsx
+++ b/Buc-ee's Sales Import-Sid.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimmysimon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Daily\8_10\_N\OMS_Data_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F326943D-8A6D-AC45-A67E-BE3FCB7A3859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="5985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="documentDownloads20230807_2040_" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="UOM" sheetId="5" r:id="rId3"/>
     <sheet name="SalesImport" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1514,8 +1513,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,7 +1682,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,6 +1865,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,7 +2131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2148,6 +2165,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2207,9 +2233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2247,9 +2273,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2284,7 +2310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2319,7 +2345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2492,97 +2518,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CS1" sqref="CS1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="14" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="17" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="36" width="9" style="1"/>
-    <col min="37" max="37" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="67" width="9" style="1"/>
-    <col min="68" max="68" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="96" width="9" style="1"/>
-    <col min="97" max="97" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" style="1"/>
+    <col min="42" max="42" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="78" width="9" style="14"/>
+    <col min="79" max="79" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="107" width="9" style="1"/>
+    <col min="108" max="108" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9" style="1"/>
+    <col min="114" max="114" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:121">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -2612,16 +2729,16 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -2630,7 +2747,7 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -2651,7 +2768,7 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
@@ -2660,16 +2777,16 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
@@ -2678,82 +2795,82 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="14" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
@@ -2786,7 +2903,7 @@
       <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="14" t="s">
         <v>88</v>
       </c>
       <c r="CL1" s="1" t="s">
@@ -2810,13 +2927,13 @@
       <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="15" t="s">
         <v>98</v>
       </c>
       <c r="CV1" s="1" t="s">
@@ -2886,23 +3003,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:121">
+      <c r="A2" s="14">
         <v>1723080057</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="10">
         <v>1723080057</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L2" s="1">
@@ -2911,209 +3028,209 @@
       <c r="AD2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="14">
         <v>3833</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="BK2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BL2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="BN2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="BO2" s="10" t="s">
+      <c r="BO2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP2" s="10">
+      <c r="BP2" s="14">
         <v>78648</v>
       </c>
-      <c r="BQ2" s="10" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CS2" s="14">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+    <row r="3" spans="1:121">
+      <c r="A3" s="14">
         <v>1723080057</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10">
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
         <v>24</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="13">
         <v>1.95</v>
       </c>
       <c r="Q3" s="1">
         <v>156423</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="13">
         <v>62298</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    <row r="4" spans="1:121">
+      <c r="A4" s="14">
         <v>1723080057</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="13">
         <v>2</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="13">
         <v>24</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="13">
         <v>1.95</v>
       </c>
       <c r="Q4" s="1">
         <v>156420</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="13">
         <v>62295</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+    <row r="5" spans="1:121">
+      <c r="A5" s="14">
         <v>1723080057</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="13">
         <v>3</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="13">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="13">
         <v>1.95</v>
       </c>
       <c r="Q5" s="1">
         <v>156424</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="13">
         <v>62299</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:121">
+      <c r="A6" s="14">
         <v>1723080057</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="13">
         <v>4</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="13">
         <v>24</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="13">
         <v>1.95</v>
       </c>
       <c r="Q6" s="1">
         <v>156419</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="13">
         <v>62294</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:121">
+      <c r="A7" s="14">
         <v>2223080094</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="1">
         <v>2223080094</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L7" s="1">
@@ -3122,244 +3239,244 @@
       <c r="AD7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="14">
         <v>3833</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AR7" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BC7" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK7" s="1" t="s">
+      <c r="BK7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="BL7" s="1" t="s">
+      <c r="BL7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="BN7" s="1" t="s">
+      <c r="BN7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BO7" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP7" s="1">
+      <c r="BP7" s="14">
         <v>78130</v>
       </c>
-      <c r="BQ7" s="1" t="s">
+      <c r="BQ7" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS7" s="1">
+      <c r="CS7" s="14">
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:121">
+      <c r="A8" s="14">
         <v>2223080094</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
         <v>48</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="13">
         <v>1.95</v>
       </c>
       <c r="Q8" s="1">
         <v>156421</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="13">
         <v>62296</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:121">
+      <c r="A9" s="14">
         <v>2223080094</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="13">
         <v>48</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="13">
         <v>1.95</v>
       </c>
       <c r="Q9" s="1">
         <v>156423</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="13">
         <v>62298</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:121">
+      <c r="A10" s="14">
         <v>2223080094</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="13">
         <v>3</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="13">
         <v>72</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="13">
         <v>1.95</v>
       </c>
       <c r="Q10" s="1">
         <v>156420</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="13">
         <v>62295</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:121">
+      <c r="A11" s="14">
         <v>2223080094</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="13">
         <v>4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="13">
         <v>48</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="13">
         <v>1.95</v>
       </c>
       <c r="Q11" s="1">
         <v>156424</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="13">
         <v>62299</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:121">
+      <c r="A12" s="14">
         <v>2223080094</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="13">
         <v>5</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="13">
         <v>24</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="13">
         <v>1.95</v>
       </c>
       <c r="Q12" s="1">
         <v>156419</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="13">
         <v>62294</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:121">
+      <c r="A13" s="14">
         <v>2623080058</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="1">
         <v>2623080058</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L13" s="1">
@@ -3368,174 +3485,174 @@
       <c r="AD13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AF13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="14">
         <v>3833</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR13" s="1" t="s">
+      <c r="AR13" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC13" s="1" t="s">
+      <c r="BC13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK13" s="1" t="s">
+      <c r="BK13" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="BL13" s="1" t="s">
+      <c r="BL13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="BN13" s="1" t="s">
+      <c r="BN13" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="BO13" s="1" t="s">
+      <c r="BO13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP13" s="1">
+      <c r="BP13" s="14">
         <v>77864</v>
       </c>
-      <c r="BQ13" s="1" t="s">
+      <c r="BQ13" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS13" s="1">
+      <c r="CS13" s="14">
         <v>280.8</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:121">
+      <c r="A14" s="14">
         <v>2623080058</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="M14" s="13">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13">
         <v>72</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="13">
         <v>1.95</v>
       </c>
       <c r="Q14" s="1">
         <v>156420</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="13">
         <v>62295</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:121">
+      <c r="A15" s="14">
         <v>2623080058</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="13">
         <v>2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="13">
         <v>24</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="13">
         <v>1.95</v>
       </c>
       <c r="Q15" s="1">
         <v>156424</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="13">
         <v>62299</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:121">
+      <c r="A16" s="14">
         <v>2623080058</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="13">
         <v>3</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="13">
         <v>48</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="13">
         <v>1.95</v>
       </c>
       <c r="Q16" s="1">
         <v>156419</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="13">
         <v>62294</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:97">
+      <c r="A17" s="14">
         <v>3023080047</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E17" s="1">
         <v>3023080047</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L17" s="1">
@@ -3544,244 +3661,244 @@
       <c r="AD17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AE17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AF17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="14">
         <v>3833</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR17" s="1" t="s">
+      <c r="AR17" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC17" s="1" t="s">
+      <c r="BC17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK17" s="1" t="s">
+      <c r="BK17" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="BL17" s="1" t="s">
+      <c r="BL17" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="BN17" s="1" t="s">
+      <c r="BN17" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BO17" s="1" t="s">
+      <c r="BO17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP17" s="1">
+      <c r="BP17" s="14">
         <v>77488</v>
       </c>
-      <c r="BQ17" s="1" t="s">
+      <c r="BQ17" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS17" s="1">
+      <c r="CS17" s="14">
         <v>514.79999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:97">
+      <c r="A18" s="14">
         <v>3023080047</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="M18" s="13">
+        <v>1</v>
+      </c>
+      <c r="N18" s="13">
         <v>48</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="13">
         <v>1.95</v>
       </c>
       <c r="Q18" s="1">
         <v>156421</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="13">
         <v>62296</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:97">
+      <c r="A19" s="14">
         <v>3023080047</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="13">
         <v>2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="13">
         <v>48</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="13">
         <v>1.95</v>
       </c>
       <c r="Q19" s="1">
         <v>156423</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="13">
         <v>62298</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:97">
+      <c r="A20" s="14">
         <v>3023080047</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="13">
         <v>3</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="13">
         <v>48</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="13">
         <v>1.95</v>
       </c>
       <c r="Q20" s="1">
         <v>156420</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="13">
         <v>62295</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:97">
+      <c r="A21" s="14">
         <v>3023080047</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="13">
         <v>4</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="13">
         <v>72</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="13">
         <v>1.95</v>
       </c>
       <c r="Q21" s="1">
         <v>156424</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="13">
         <v>62299</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:97">
+      <c r="A22" s="14">
         <v>3023080047</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="13">
         <v>5</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="13">
         <v>48</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="13">
         <v>1.95</v>
       </c>
       <c r="Q22" s="1">
         <v>156419</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="13">
         <v>62294</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:97">
+      <c r="A23" s="14">
         <v>3423080079</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E23" s="1">
         <v>3423080079</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L23" s="1">
@@ -3790,139 +3907,139 @@
       <c r="AD23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE23" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="14">
         <v>3833</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AR23" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC23" s="1" t="s">
+      <c r="BC23" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK23" s="1" t="s">
+      <c r="BK23" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="BL23" s="1" t="s">
+      <c r="BL23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="BN23" s="1" t="s">
+      <c r="BN23" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="BO23" s="1" t="s">
+      <c r="BO23" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP23" s="1">
+      <c r="BP23" s="14">
         <v>77521</v>
       </c>
-      <c r="BQ23" s="1" t="s">
+      <c r="BQ23" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS23" s="1">
+      <c r="CS23" s="14">
         <v>140.4</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:97">
+      <c r="A24" s="14">
         <v>3423080079</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="M24" s="13">
+        <v>1</v>
+      </c>
+      <c r="N24" s="13">
         <v>48</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="13">
         <v>1.95</v>
       </c>
       <c r="Q24" s="1">
         <v>156420</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="13">
         <v>62295</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:97">
+      <c r="A25" s="14">
         <v>3423080079</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="13">
         <v>2</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="13">
         <v>24</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="13">
         <v>1.95</v>
       </c>
       <c r="Q25" s="1">
         <v>156424</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="13">
         <v>62299</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:97">
+      <c r="A26" s="14">
         <v>3523080090</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="1">
         <v>3523080090</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L26" s="1">
@@ -3931,209 +4048,209 @@
       <c r="AD26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AE26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AF26" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="14">
         <v>3833</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR26" s="1" t="s">
+      <c r="AR26" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC26" s="1" t="s">
+      <c r="BC26" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK26" s="1" t="s">
+      <c r="BK26" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="BL26" s="1" t="s">
+      <c r="BL26" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="BN26" s="1" t="s">
+      <c r="BN26" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="BO26" s="1" t="s">
+      <c r="BO26" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP26" s="1">
+      <c r="BP26" s="14">
         <v>76501</v>
       </c>
-      <c r="BQ26" s="1" t="s">
+      <c r="BQ26" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS26" s="1">
+      <c r="CS26" s="14">
         <v>327.60000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:97">
+      <c r="A27" s="14">
         <v>3523080090</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="M27" s="13">
+        <v>1</v>
+      </c>
+      <c r="N27" s="13">
         <v>48</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="13">
         <v>1.95</v>
       </c>
       <c r="Q27" s="1">
         <v>156423</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="13">
         <v>62298</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD27" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:97">
+      <c r="A28" s="14">
         <v>3523080090</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="13">
         <v>2</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="13">
         <v>72</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="13">
         <v>1.95</v>
       </c>
       <c r="Q28" s="1">
         <v>156420</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="13">
         <v>62295</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD28" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:97">
+      <c r="A29" s="14">
         <v>3523080090</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="13">
         <v>3</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="13">
         <v>24</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="13">
         <v>1.95</v>
       </c>
       <c r="Q29" s="1">
         <v>156424</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="13">
         <v>62299</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD29" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:97">
+      <c r="A30" s="14">
         <v>3523080090</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="13">
         <v>4</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="13">
         <v>24</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="13">
         <v>1.95</v>
       </c>
       <c r="Q30" s="1">
         <v>156419</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="13">
         <v>62294</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD30" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:97">
+      <c r="A31" s="14">
         <v>3623080077</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="1">
         <v>3623080077</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L31" s="1">
@@ -4142,104 +4259,104 @@
       <c r="AD31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AE31" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AF31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" s="14">
         <v>3833</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="AR31" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BC31" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BK31" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="BL31" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="BN31" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="BO31" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP31" s="1">
+      <c r="BP31" s="14">
         <v>75160</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="BQ31" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS31" s="1">
+      <c r="CS31" s="14">
         <v>46.8</v>
       </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:97">
+      <c r="A32" s="14">
         <v>3623080077</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="M32" s="13">
+        <v>1</v>
+      </c>
+      <c r="N32" s="13">
         <v>24</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="13">
         <v>1.95</v>
       </c>
       <c r="Q32" s="1">
         <v>156423</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="13">
         <v>62298</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD32" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:97">
+      <c r="A33" s="14">
         <v>3723080080</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="1">
         <v>3723080080</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L33" s="1">
@@ -4248,244 +4365,244 @@
       <c r="AD33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE33" s="1" t="s">
+      <c r="AE33" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF33" s="1" t="s">
+      <c r="AF33" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AK33" s="14">
         <v>3833</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR33" s="1" t="s">
+      <c r="AR33" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC33" s="1" t="s">
+      <c r="BC33" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK33" s="1" t="s">
+      <c r="BK33" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="BL33" s="1" t="s">
+      <c r="BL33" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="BN33" s="1" t="s">
+      <c r="BN33" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="BO33" s="1" t="s">
+      <c r="BO33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP33" s="1">
+      <c r="BP33" s="14">
         <v>76177</v>
       </c>
-      <c r="BQ33" s="1" t="s">
+      <c r="BQ33" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS33" s="1">
+      <c r="CS33" s="14">
         <v>514.79999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:97">
+      <c r="A34" s="14">
         <v>3723080080</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="M34" s="13">
+        <v>1</v>
+      </c>
+      <c r="N34" s="13">
         <v>24</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="13">
         <v>1.95</v>
       </c>
       <c r="Q34" s="1">
         <v>156421</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="13">
         <v>62296</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD34" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:97">
+      <c r="A35" s="14">
         <v>3723080080</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="13">
         <v>2</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="13">
         <v>72</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="13">
         <v>1.95</v>
       </c>
       <c r="Q35" s="1">
         <v>156423</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35" s="13">
         <v>62298</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U35" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD35" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:97">
+      <c r="A36" s="14">
         <v>3723080080</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="13">
         <v>3</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="13">
         <v>96</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="13">
         <v>1.95</v>
       </c>
       <c r="Q36" s="1">
         <v>156420</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="13">
         <v>62295</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U36" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD36" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:97">
+      <c r="A37" s="14">
         <v>3723080080</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="13">
         <v>4</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="13">
         <v>24</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="13">
         <v>1.95</v>
       </c>
       <c r="Q37" s="1">
         <v>156424</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="13">
         <v>62299</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD37" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:97">
+      <c r="A38" s="14">
         <v>3723080080</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="13">
         <v>5</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="13">
         <v>48</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="13">
         <v>1.95</v>
       </c>
       <c r="Q38" s="1">
         <v>156419</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="13">
         <v>62294</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="U38" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD38" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:97">
+      <c r="A39" s="14">
         <v>3823080080</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E39" s="1">
         <v>3823080080</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L39" s="1">
@@ -4494,174 +4611,174 @@
       <c r="AD39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE39" s="1" t="s">
+      <c r="AE39" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF39" s="1" t="s">
+      <c r="AF39" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AK39" s="14">
         <v>3833</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR39" s="1" t="s">
+      <c r="AR39" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC39" s="1" t="s">
+      <c r="BC39" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK39" s="1" t="s">
+      <c r="BK39" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="BL39" s="1" t="s">
+      <c r="BL39" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="BN39" s="1" t="s">
+      <c r="BN39" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="BO39" s="1" t="s">
+      <c r="BO39" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP39" s="1">
+      <c r="BP39" s="14">
         <v>75189</v>
       </c>
-      <c r="BQ39" s="1" t="s">
+      <c r="BQ39" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS39" s="1">
+      <c r="CS39" s="14">
         <v>187.2</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:97">
+      <c r="A40" s="14">
         <v>3823080080</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="M40" s="13">
+        <v>1</v>
+      </c>
+      <c r="N40" s="13">
         <v>48</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="13">
         <v>1.95</v>
       </c>
       <c r="Q40" s="1">
         <v>156423</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="13">
         <v>62298</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD40" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:97">
+      <c r="A41" s="14">
         <v>3823080080</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="13">
         <v>2</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="13">
         <v>24</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="13">
         <v>1.95</v>
       </c>
       <c r="Q41" s="1">
         <v>156420</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="13">
         <v>62295</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD41" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:97">
+      <c r="A42" s="14">
         <v>3823080080</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="13">
         <v>3</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="13">
         <v>24</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="13">
         <v>1.95</v>
       </c>
       <c r="Q42" s="1">
         <v>156419</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="13">
         <v>62294</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="U42" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD42" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:97">
+      <c r="A43" s="14">
         <v>3923080083</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E43" s="1">
         <v>3923080083</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L43" s="1">
@@ -4670,244 +4787,244 @@
       <c r="AD43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE43" s="1" t="s">
+      <c r="AE43" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF43" s="1" t="s">
+      <c r="AF43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AK43" s="14">
         <v>3833</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR43" s="1" t="s">
+      <c r="AR43" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC43" s="1" t="s">
+      <c r="BC43" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK43" s="1" t="s">
+      <c r="BK43" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="BL43" s="1" t="s">
+      <c r="BL43" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="BN43" s="1" t="s">
+      <c r="BN43" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="BO43" s="1" t="s">
+      <c r="BO43" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP43" s="1">
+      <c r="BP43" s="14">
         <v>76210</v>
       </c>
-      <c r="BQ43" s="1" t="s">
+      <c r="BQ43" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS43" s="1">
+      <c r="CS43" s="14">
         <v>374.4</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:97">
+      <c r="A44" s="14">
         <v>3923080083</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
+      <c r="M44" s="13">
+        <v>1</v>
+      </c>
+      <c r="N44" s="13">
         <v>24</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="13">
         <v>1.95</v>
       </c>
       <c r="Q44" s="1">
         <v>156422</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="13">
         <v>653899622978</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="13">
         <v>62297</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U44" s="13" t="s">
         <v>171</v>
       </c>
       <c r="AD44" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:97">
+      <c r="A45" s="14">
         <v>3923080083</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="13">
         <v>2</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="13">
         <v>24</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="13">
         <v>1.95</v>
       </c>
       <c r="Q45" s="1">
         <v>156421</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="13">
         <v>62296</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U45" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:97">
+      <c r="A46" s="14">
         <v>3923080083</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="13">
         <v>3</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="13">
         <v>48</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="13">
         <v>1.95</v>
       </c>
       <c r="Q46" s="1">
         <v>156423</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="13">
         <v>62298</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U46" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD46" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:97">
+      <c r="A47" s="14">
         <v>3923080083</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="13">
         <v>4</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="13">
         <v>24</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="13">
         <v>1.95</v>
       </c>
       <c r="Q47" s="1">
         <v>156420</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="13">
         <v>62295</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="U47" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD47" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:97">
+      <c r="A48" s="14">
         <v>3923080083</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="13">
         <v>5</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="13">
         <v>72</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="13">
         <v>1.95</v>
       </c>
       <c r="Q48" s="1">
         <v>156424</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="13">
         <v>62299</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="U48" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD48" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:97">
+      <c r="A49" s="14">
         <v>4023080080</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E49" s="1">
         <v>4023080080</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L49" s="1">
@@ -4916,244 +5033,244 @@
       <c r="AD49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE49" s="1" t="s">
+      <c r="AE49" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF49" s="1" t="s">
+      <c r="AF49" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AK49" s="14">
         <v>3833</v>
       </c>
       <c r="AP49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR49" s="1" t="s">
+      <c r="AR49" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC49" s="1" t="s">
+      <c r="BC49" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK49" s="1" t="s">
+      <c r="BK49" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="BL49" s="1" t="s">
+      <c r="BL49" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BN49" s="1" t="s">
+      <c r="BN49" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BO49" s="1" t="s">
+      <c r="BO49" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP49" s="1">
+      <c r="BP49" s="14">
         <v>77494</v>
       </c>
-      <c r="BQ49" s="1" t="s">
+      <c r="BQ49" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS49" s="1">
+      <c r="CS49" s="14">
         <v>280.8</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:97">
+      <c r="A50" s="14">
         <v>4023080080</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M50" s="1">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1">
+      <c r="M50" s="13">
+        <v>1</v>
+      </c>
+      <c r="N50" s="13">
         <v>24</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="13">
         <v>1.95</v>
       </c>
       <c r="Q50" s="1">
         <v>156421</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50" s="13">
         <v>62296</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="U50" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD50" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:97">
+      <c r="A51" s="14">
         <v>4023080080</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="13">
         <v>2</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="13">
         <v>24</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="13">
         <v>1.95</v>
       </c>
       <c r="Q51" s="1">
         <v>156423</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="13">
         <v>62298</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="U51" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD51" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:97">
+      <c r="A52" s="14">
         <v>4023080080</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="13">
         <v>3</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="13">
         <v>48</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="13">
         <v>1.95</v>
       </c>
       <c r="Q52" s="1">
         <v>156420</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52" s="13">
         <v>62295</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="U52" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD52" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:97">
+      <c r="A53" s="14">
         <v>4023080080</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="13">
         <v>4</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="13">
         <v>24</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="13">
         <v>1.95</v>
       </c>
       <c r="Q53" s="1">
         <v>156424</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53" s="13">
         <v>62299</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="U53" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD53" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:97">
+      <c r="A54" s="14">
         <v>4023080080</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="13">
         <v>5</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54" s="13">
         <v>24</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="13">
         <v>1.95</v>
       </c>
       <c r="Q54" s="1">
         <v>156419</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54" s="13">
         <v>62294</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="U54" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD54" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:97">
+      <c r="A55" s="14">
         <v>4223080101</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E55" s="1">
         <v>4223080101</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L55" s="1">
@@ -5162,209 +5279,209 @@
       <c r="AD55" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE55" s="1" t="s">
+      <c r="AE55" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF55" s="1" t="s">
+      <c r="AF55" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AK55" s="14">
         <v>3833</v>
       </c>
       <c r="AP55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR55" s="1" t="s">
+      <c r="AR55" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC55" s="1" t="s">
+      <c r="BC55" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK55" s="1" t="s">
+      <c r="BK55" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="BL55" s="1" t="s">
+      <c r="BL55" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="BN55" s="1" t="s">
+      <c r="BN55" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="BO55" s="1" t="s">
+      <c r="BO55" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="BP55" s="1">
+      <c r="BP55" s="14">
         <v>36567</v>
       </c>
-      <c r="BQ55" s="1" t="s">
+      <c r="BQ55" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CS55" s="1">
+      <c r="CS55" s="14">
         <v>795.6</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:97">
+      <c r="A56" s="14">
         <v>4223080101</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M56" s="1">
-        <v>1</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="M56" s="13">
+        <v>1</v>
+      </c>
+      <c r="N56" s="13">
         <v>24</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="13">
         <v>1.95</v>
       </c>
       <c r="Q56" s="1">
         <v>156421</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="13">
         <v>62296</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="U56" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD56" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:97">
+      <c r="A57" s="14">
         <v>4223080101</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="13">
         <v>2</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="13">
         <v>24</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="13">
         <v>1.95</v>
       </c>
       <c r="Q57" s="1">
         <v>156423</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="13">
         <v>62298</v>
       </c>
-      <c r="U57" s="1" t="s">
+      <c r="U57" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD57" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:97">
+      <c r="A58" s="14">
         <v>4223080101</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="13">
         <v>3</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="13">
         <v>240</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="13">
         <v>1.95</v>
       </c>
       <c r="Q58" s="1">
         <v>156420</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="13">
         <v>62295</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="U58" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD58" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:97">
+      <c r="A59" s="14">
         <v>4223080101</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="13">
         <v>4</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="13">
         <v>120</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="O59" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="13">
         <v>1.95</v>
       </c>
       <c r="Q59" s="1">
         <v>156424</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59" s="13">
         <v>62299</v>
       </c>
-      <c r="U59" s="1" t="s">
+      <c r="U59" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD59" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:97">
+      <c r="A60" s="14">
         <v>4323080085</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E60" s="1">
         <v>4323080085</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L60" s="1">
@@ -5373,174 +5490,174 @@
       <c r="AD60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE60" s="1" t="s">
+      <c r="AE60" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF60" s="1" t="s">
+      <c r="AF60" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK60" s="1">
+      <c r="AK60" s="14">
         <v>3833</v>
       </c>
       <c r="AP60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR60" s="1" t="s">
+      <c r="AR60" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC60" s="1" t="s">
+      <c r="BC60" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK60" s="1" t="s">
+      <c r="BK60" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="BL60" s="1" t="s">
+      <c r="BL60" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="BN60" s="1" t="s">
+      <c r="BN60" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="BO60" s="1" t="s">
+      <c r="BO60" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="BP60" s="1" t="s">
+      <c r="BP60" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="BQ60" s="1" t="s">
+      <c r="BQ60" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CS60" s="1">
+      <c r="CS60" s="14">
         <v>187.2</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:97">
+      <c r="A61" s="14">
         <v>4323080085</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1">
+      <c r="M61" s="13">
+        <v>1</v>
+      </c>
+      <c r="N61" s="13">
         <v>24</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="13">
         <v>1.95</v>
       </c>
       <c r="Q61" s="1">
         <v>156423</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="13">
         <v>62298</v>
       </c>
-      <c r="U61" s="1" t="s">
+      <c r="U61" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD61" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:97">
+      <c r="A62" s="14">
         <v>4323080085</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="13">
         <v>2</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="13">
         <v>24</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="13">
         <v>1.95</v>
       </c>
       <c r="Q62" s="1">
         <v>156420</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="13">
         <v>62295</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="U62" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD62" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:97">
+      <c r="A63" s="14">
         <v>4323080085</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="13">
         <v>3</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63" s="13">
         <v>48</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="13">
         <v>1.95</v>
       </c>
       <c r="Q63" s="1">
         <v>156424</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R63" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S63" s="13">
         <v>62299</v>
       </c>
-      <c r="U63" s="1" t="s">
+      <c r="U63" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD63" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:97">
+      <c r="A64" s="14">
         <v>4423080078</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E64" s="1">
         <v>4423080078</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L64" s="1">
@@ -5549,139 +5666,139 @@
       <c r="AD64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE64" s="1" t="s">
+      <c r="AE64" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF64" s="1" t="s">
+      <c r="AF64" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK64" s="1">
+      <c r="AK64" s="14">
         <v>3833</v>
       </c>
       <c r="AP64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR64" s="1" t="s">
+      <c r="AR64" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC64" s="1" t="s">
+      <c r="BC64" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK64" s="1" t="s">
+      <c r="BK64" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="BL64" s="1" t="s">
+      <c r="BL64" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="BN64" s="1" t="s">
+      <c r="BN64" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="BO64" s="1" t="s">
+      <c r="BO64" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP64" s="1">
+      <c r="BP64" s="14">
         <v>75454</v>
       </c>
-      <c r="BQ64" s="1" t="s">
+      <c r="BQ64" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS64" s="1">
+      <c r="CS64" s="14">
         <v>93.6</v>
       </c>
     </row>
-    <row r="65" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:97">
+      <c r="A65" s="14">
         <v>4423080078</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1">
+      <c r="M65" s="13">
+        <v>1</v>
+      </c>
+      <c r="N65" s="13">
         <v>24</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O65" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="13">
         <v>1.95</v>
       </c>
       <c r="Q65" s="1">
         <v>156423</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S65" s="13">
         <v>62298</v>
       </c>
-      <c r="U65" s="1" t="s">
+      <c r="U65" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD65" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:97">
+      <c r="A66" s="14">
         <v>4423080078</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="13">
         <v>2</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="13">
         <v>24</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="O66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="13">
         <v>1.95</v>
       </c>
       <c r="Q66" s="1">
         <v>156420</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66" s="13">
         <v>62295</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="U66" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD66" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:97">
+      <c r="A67" s="14">
         <v>4523080099</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="1">
         <v>4523080099</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L67" s="1">
@@ -5690,174 +5807,174 @@
       <c r="AD67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE67" s="1" t="s">
+      <c r="AE67" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF67" s="1" t="s">
+      <c r="AF67" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK67" s="1">
+      <c r="AK67" s="14">
         <v>3833</v>
       </c>
       <c r="AP67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR67" s="1" t="s">
+      <c r="AR67" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC67" s="1" t="s">
+      <c r="BC67" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK67" s="1" t="s">
+      <c r="BK67" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="BL67" s="1" t="s">
+      <c r="BL67" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="BN67" s="1" t="s">
+      <c r="BN67" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="BO67" s="1" t="s">
+      <c r="BO67" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="BP67" s="1">
+      <c r="BP67" s="14">
         <v>37764</v>
       </c>
-      <c r="BQ67" s="1" t="s">
+      <c r="BQ67" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CS67" s="1">
+      <c r="CS67" s="14">
         <v>374.4</v>
       </c>
     </row>
-    <row r="68" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:97">
+      <c r="A68" s="14">
         <v>4523080099</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M68" s="1">
-        <v>1</v>
-      </c>
-      <c r="N68" s="1">
+      <c r="M68" s="13">
+        <v>1</v>
+      </c>
+      <c r="N68" s="13">
         <v>24</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="O68" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="13">
         <v>1.95</v>
       </c>
       <c r="Q68" s="1">
         <v>156421</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S68" s="1">
+      <c r="S68" s="13">
         <v>62296</v>
       </c>
-      <c r="U68" s="1" t="s">
+      <c r="U68" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD68" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:97">
+      <c r="A69" s="14">
         <v>4523080099</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="13">
         <v>2</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="13">
         <v>96</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="O69" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="13">
         <v>1.95</v>
       </c>
       <c r="Q69" s="1">
         <v>156420</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="13">
         <v>62295</v>
       </c>
-      <c r="U69" s="1" t="s">
+      <c r="U69" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD69" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:97">
+      <c r="A70" s="14">
         <v>4523080099</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="13">
         <v>3</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70" s="13">
         <v>72</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="O70" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="13">
         <v>1.95</v>
       </c>
       <c r="Q70" s="1">
         <v>156424</v>
       </c>
-      <c r="R70" s="1">
+      <c r="R70" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S70" s="1">
+      <c r="S70" s="13">
         <v>62299</v>
       </c>
-      <c r="U70" s="1" t="s">
+      <c r="U70" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD70" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:97">
+      <c r="A71" s="14">
         <v>4623080084</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E71" s="1">
         <v>4623080084</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L71" s="1">
@@ -5866,139 +5983,139 @@
       <c r="AD71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE71" s="1" t="s">
+      <c r="AE71" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF71" s="1" t="s">
+      <c r="AF71" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK71" s="1">
+      <c r="AK71" s="14">
         <v>3833</v>
       </c>
       <c r="AP71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR71" s="1" t="s">
+      <c r="AR71" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC71" s="1" t="s">
+      <c r="BC71" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK71" s="1" t="s">
+      <c r="BK71" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="BL71" s="1" t="s">
+      <c r="BL71" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="BN71" s="1" t="s">
+      <c r="BN71" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="BO71" s="1" t="s">
+      <c r="BO71" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="BP71" s="1">
+      <c r="BP71" s="14">
         <v>32092</v>
       </c>
-      <c r="BQ71" s="1" t="s">
+      <c r="BQ71" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS71" s="1">
+      <c r="CS71" s="14">
         <v>140.4</v>
       </c>
     </row>
-    <row r="72" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:97">
+      <c r="A72" s="14">
         <v>4623080084</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M72" s="1">
-        <v>1</v>
-      </c>
-      <c r="N72" s="1">
+      <c r="M72" s="13">
+        <v>1</v>
+      </c>
+      <c r="N72" s="13">
         <v>24</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="O72" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="13">
         <v>1.95</v>
       </c>
       <c r="Q72" s="1">
         <v>156423</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S72" s="13">
         <v>62298</v>
       </c>
-      <c r="U72" s="1" t="s">
+      <c r="U72" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD72" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:97">
+      <c r="A73" s="14">
         <v>4623080084</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="13">
         <v>2</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73" s="13">
         <v>48</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="O73" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="13">
         <v>1.95</v>
       </c>
       <c r="Q73" s="1">
         <v>156424</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="13">
         <v>62299</v>
       </c>
-      <c r="U73" s="1" t="s">
+      <c r="U73" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD73" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:97">
+      <c r="A74" s="14">
         <v>4723080090</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E74" s="1">
         <v>4723080090</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L74" s="1">
@@ -6007,209 +6124,209 @@
       <c r="AD74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE74" s="1" t="s">
+      <c r="AE74" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF74" s="1" t="s">
+      <c r="AF74" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK74" s="1">
+      <c r="AK74" s="14">
         <v>3833</v>
       </c>
       <c r="AP74" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR74" s="1" t="s">
+      <c r="AR74" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC74" s="1" t="s">
+      <c r="BC74" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK74" s="1" t="s">
+      <c r="BK74" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="BL74" s="1" t="s">
+      <c r="BL74" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="BN74" s="1" t="s">
+      <c r="BN74" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="BO74" s="1" t="s">
+      <c r="BO74" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="BP74" s="1">
+      <c r="BP74" s="14">
         <v>32117</v>
       </c>
-      <c r="BQ74" s="1" t="s">
+      <c r="BQ74" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS74" s="1">
+      <c r="CS74" s="14">
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:97">
+      <c r="A75" s="14">
         <v>4723080090</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M75" s="1">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1">
+      <c r="M75" s="13">
+        <v>1</v>
+      </c>
+      <c r="N75" s="13">
         <v>24</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="O75" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="13">
         <v>1.95</v>
       </c>
       <c r="Q75" s="1">
         <v>156422</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75" s="13">
         <v>653899622978</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="13">
         <v>62297</v>
       </c>
-      <c r="U75" s="1" t="s">
+      <c r="U75" s="13" t="s">
         <v>171</v>
       </c>
       <c r="AD75" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:97">
+      <c r="A76" s="14">
         <v>4723080090</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="13">
         <v>2</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76" s="13">
         <v>24</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="O76" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="13">
         <v>1.95</v>
       </c>
       <c r="Q76" s="1">
         <v>156420</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="13">
         <v>62295</v>
       </c>
-      <c r="U76" s="1" t="s">
+      <c r="U76" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD76" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:97">
+      <c r="A77" s="14">
         <v>4723080090</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="13">
         <v>3</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77" s="13">
         <v>48</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="O77" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="13">
         <v>1.95</v>
       </c>
       <c r="Q77" s="1">
         <v>156424</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S77" s="1">
+      <c r="S77" s="13">
         <v>62299</v>
       </c>
-      <c r="U77" s="1" t="s">
+      <c r="U77" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD77" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:97">
+      <c r="A78" s="14">
         <v>4723080090</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78" s="13">
         <v>4</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78" s="13">
         <v>24</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="O78" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="13">
         <v>1.95</v>
       </c>
       <c r="Q78" s="1">
         <v>156419</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R78" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S78" s="13">
         <v>62294</v>
       </c>
-      <c r="U78" s="1" t="s">
+      <c r="U78" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD78" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:97">
+      <c r="A79" s="14">
         <v>4823080067</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E79" s="1">
         <v>4823080067</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L79" s="1">
@@ -6218,104 +6335,104 @@
       <c r="AD79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE79" s="1" t="s">
+      <c r="AE79" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF79" s="1" t="s">
+      <c r="AF79" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK79" s="1">
+      <c r="AK79" s="14">
         <v>3833</v>
       </c>
       <c r="AP79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR79" s="1" t="s">
+      <c r="AR79" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC79" s="1" t="s">
+      <c r="BC79" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK79" s="1" t="s">
+      <c r="BK79" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="BL79" s="1" t="s">
+      <c r="BL79" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="BN79" s="1" t="s">
+      <c r="BN79" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="BO79" s="1" t="s">
+      <c r="BO79" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BP79" s="1">
+      <c r="BP79" s="14">
         <v>75119</v>
       </c>
-      <c r="BQ79" s="1" t="s">
+      <c r="BQ79" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CS79" s="1">
+      <c r="CS79" s="14">
         <v>46.8</v>
       </c>
     </row>
-    <row r="80" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:97">
+      <c r="A80" s="14">
         <v>4823080067</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M80" s="1">
-        <v>1</v>
-      </c>
-      <c r="N80" s="1">
+      <c r="M80" s="13">
+        <v>1</v>
+      </c>
+      <c r="N80" s="13">
         <v>24</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="O80" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="13">
         <v>1.95</v>
       </c>
       <c r="Q80" s="1">
         <v>156419</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R80" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80" s="13">
         <v>62294</v>
       </c>
-      <c r="U80" s="1" t="s">
+      <c r="U80" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD80" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:97">
+      <c r="A81" s="14">
         <v>5023080089</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E81" s="1">
         <v>5023080089</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L81" s="1">
@@ -6324,209 +6441,209 @@
       <c r="AD81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE81" s="1" t="s">
+      <c r="AE81" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF81" s="1" t="s">
+      <c r="AF81" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK81" s="1">
+      <c r="AK81" s="14">
         <v>3833</v>
       </c>
       <c r="AP81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR81" s="1" t="s">
+      <c r="AR81" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC81" s="1" t="s">
+      <c r="BC81" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK81" s="1" t="s">
+      <c r="BK81" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="BL81" s="1" t="s">
+      <c r="BL81" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="BN81" s="1" t="s">
+      <c r="BN81" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="BO81" s="1" t="s">
+      <c r="BO81" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="BP81" s="1">
+      <c r="BP81" s="14">
         <v>38555</v>
       </c>
-      <c r="BQ81" s="1" t="s">
+      <c r="BQ81" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CS81" s="1">
+      <c r="CS81" s="14">
         <v>468</v>
       </c>
     </row>
-    <row r="82" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:97">
+      <c r="A82" s="14">
         <v>5023080089</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M82" s="1">
-        <v>1</v>
-      </c>
-      <c r="N82" s="1">
+      <c r="M82" s="13">
+        <v>1</v>
+      </c>
+      <c r="N82" s="13">
         <v>24</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="O82" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82" s="13">
         <v>1.95</v>
       </c>
       <c r="Q82" s="1">
         <v>156423</v>
       </c>
-      <c r="R82" s="1">
+      <c r="R82" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82" s="13">
         <v>62298</v>
       </c>
-      <c r="U82" s="1" t="s">
+      <c r="U82" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD82" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:97">
+      <c r="A83" s="14">
         <v>5023080089</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83" s="13">
         <v>2</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N83" s="13">
         <v>120</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="O83" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="13">
         <v>1.95</v>
       </c>
       <c r="Q83" s="1">
         <v>156420</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R83" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83" s="13">
         <v>62295</v>
       </c>
-      <c r="U83" s="1" t="s">
+      <c r="U83" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD83" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:97">
+      <c r="A84" s="14">
         <v>5023080089</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M84" s="13">
         <v>3</v>
       </c>
-      <c r="N84" s="1">
+      <c r="N84" s="13">
         <v>72</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="O84" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="13">
         <v>1.95</v>
       </c>
       <c r="Q84" s="1">
         <v>156424</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R84" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84" s="13">
         <v>62299</v>
       </c>
-      <c r="U84" s="1" t="s">
+      <c r="U84" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD84" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:97">
+      <c r="A85" s="14">
         <v>5023080089</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85" s="13">
         <v>4</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N85" s="13">
         <v>24</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="O85" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="13">
         <v>1.95</v>
       </c>
       <c r="Q85" s="1">
         <v>156419</v>
       </c>
-      <c r="R85" s="1">
+      <c r="R85" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85" s="13">
         <v>62294</v>
       </c>
-      <c r="U85" s="1" t="s">
+      <c r="U85" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:97">
+      <c r="A86" s="14">
         <v>5123080087</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E86" s="1">
         <v>5123080087</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L86" s="1">
@@ -6535,174 +6652,174 @@
       <c r="AD86" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE86" s="1" t="s">
+      <c r="AE86" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF86" s="1" t="s">
+      <c r="AF86" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK86" s="1">
+      <c r="AK86" s="14">
         <v>3833</v>
       </c>
       <c r="AP86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR86" s="1" t="s">
+      <c r="AR86" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS86" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC86" s="1" t="s">
+      <c r="BC86" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK86" s="1" t="s">
+      <c r="BK86" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="BL86" s="1" t="s">
+      <c r="BL86" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="BN86" s="1" t="s">
+      <c r="BN86" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BO86" s="1" t="s">
+      <c r="BO86" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BP86" s="1">
+      <c r="BP86" s="14">
         <v>31030</v>
       </c>
-      <c r="BQ86" s="1" t="s">
+      <c r="BQ86" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CS86" s="1">
+      <c r="CS86" s="14">
         <v>468</v>
       </c>
     </row>
-    <row r="87" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:97">
+      <c r="A87" s="14">
         <v>5123080087</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M87" s="1">
-        <v>1</v>
-      </c>
-      <c r="N87" s="1">
+      <c r="M87" s="13">
+        <v>1</v>
+      </c>
+      <c r="N87" s="13">
         <v>48</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="O87" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="13">
         <v>1.95</v>
       </c>
       <c r="Q87" s="1">
         <v>156423</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R87" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="13">
         <v>62298</v>
       </c>
-      <c r="U87" s="1" t="s">
+      <c r="U87" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD87" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:97">
+      <c r="A88" s="14">
         <v>5123080087</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88" s="13">
         <v>2</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N88" s="13">
         <v>168</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="O88" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P88" s="13">
         <v>1.95</v>
       </c>
       <c r="Q88" s="1">
         <v>156420</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R88" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="13">
         <v>62295</v>
       </c>
-      <c r="U88" s="1" t="s">
+      <c r="U88" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD88" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:97">
+      <c r="A89" s="14">
         <v>5123080087</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89" s="13">
         <v>3</v>
       </c>
-      <c r="N89" s="1">
+      <c r="N89" s="13">
         <v>24</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="O89" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P89" s="13">
         <v>1.95</v>
       </c>
       <c r="Q89" s="1">
         <v>156424</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R89" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S89" s="13">
         <v>62299</v>
       </c>
-      <c r="U89" s="1" t="s">
+      <c r="U89" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD89" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:97">
+      <c r="A90" s="14">
         <v>5223080096</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E90" s="1">
         <v>5223080096</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L90" s="1">
@@ -6711,209 +6828,209 @@
       <c r="AD90" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="1" t="s">
+      <c r="AE90" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF90" s="1" t="s">
+      <c r="AF90" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK90" s="1">
+      <c r="AK90" s="14">
         <v>3833</v>
       </c>
       <c r="AP90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR90" s="1" t="s">
+      <c r="AR90" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC90" s="1" t="s">
+      <c r="BC90" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK90" s="1" t="s">
+      <c r="BK90" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="BL90" s="1" t="s">
+      <c r="BL90" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="BN90" s="1" t="s">
+      <c r="BN90" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="BO90" s="1" t="s">
+      <c r="BO90" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BP90" s="1">
+      <c r="BP90" s="14">
         <v>30103</v>
       </c>
-      <c r="BQ90" s="1" t="s">
+      <c r="BQ90" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CS90" s="1">
+      <c r="CS90" s="14">
         <v>327.60000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:97">
+      <c r="A91" s="14">
         <v>5223080096</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M91" s="1">
-        <v>1</v>
-      </c>
-      <c r="N91" s="1">
+      <c r="M91" s="13">
+        <v>1</v>
+      </c>
+      <c r="N91" s="13">
         <v>24</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="O91" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P91" s="1">
+      <c r="P91" s="13">
         <v>1.95</v>
       </c>
       <c r="Q91" s="1">
         <v>156422</v>
       </c>
-      <c r="R91" s="1">
+      <c r="R91" s="13">
         <v>653899622978</v>
       </c>
-      <c r="S91" s="1">
+      <c r="S91" s="13">
         <v>62297</v>
       </c>
-      <c r="U91" s="1" t="s">
+      <c r="U91" s="13" t="s">
         <v>171</v>
       </c>
       <c r="AD91" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:97">
+      <c r="A92" s="14">
         <v>5223080096</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M92" s="13">
         <v>2</v>
       </c>
-      <c r="N92" s="1">
+      <c r="N92" s="13">
         <v>72</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="O92" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P92" s="13">
         <v>1.95</v>
       </c>
       <c r="Q92" s="1">
         <v>156421</v>
       </c>
-      <c r="R92" s="1">
+      <c r="R92" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S92" s="1">
+      <c r="S92" s="13">
         <v>62296</v>
       </c>
-      <c r="U92" s="1" t="s">
+      <c r="U92" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD92" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:97">
+      <c r="A93" s="14">
         <v>5223080096</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93" s="13">
         <v>3</v>
       </c>
-      <c r="N93" s="1">
+      <c r="N93" s="13">
         <v>48</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="O93" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P93" s="13">
         <v>1.95</v>
       </c>
       <c r="Q93" s="1">
         <v>156420</v>
       </c>
-      <c r="R93" s="1">
+      <c r="R93" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S93" s="1">
+      <c r="S93" s="13">
         <v>62295</v>
       </c>
-      <c r="U93" s="1" t="s">
+      <c r="U93" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD93" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:97">
+      <c r="A94" s="14">
         <v>5223080096</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94" s="13">
         <v>4</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N94" s="13">
         <v>24</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="O94" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P94" s="13">
         <v>1.95</v>
       </c>
       <c r="Q94" s="1">
         <v>156419</v>
       </c>
-      <c r="R94" s="1">
+      <c r="R94" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S94" s="13">
         <v>62294</v>
       </c>
-      <c r="U94" s="1" t="s">
+      <c r="U94" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD94" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:97">
+      <c r="A95" s="14">
         <v>5323080092</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E95" s="1">
         <v>5323080092</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L95" s="1">
@@ -6922,279 +7039,279 @@
       <c r="AD95" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE95" s="1" t="s">
+      <c r="AE95" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF95" s="1" t="s">
+      <c r="AF95" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK95" s="1">
+      <c r="AK95" s="14">
         <v>3833</v>
       </c>
       <c r="AP95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR95" s="1" t="s">
+      <c r="AR95" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC95" s="1" t="s">
+      <c r="BC95" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK95" s="1" t="s">
+      <c r="BK95" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="BL95" s="1" t="s">
+      <c r="BL95" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="BN95" s="1" t="s">
+      <c r="BN95" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BO95" s="1" t="s">
+      <c r="BO95" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BP95" s="1">
+      <c r="BP95" s="14">
         <v>29506</v>
       </c>
-      <c r="BQ95" s="1" t="s">
+      <c r="BQ95" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="CS95" s="1">
+      <c r="CS95" s="14">
         <v>936</v>
       </c>
     </row>
-    <row r="96" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:97">
+      <c r="A96" s="14">
         <v>5323080092</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M96" s="1">
-        <v>1</v>
-      </c>
-      <c r="N96" s="1">
+      <c r="M96" s="13">
+        <v>1</v>
+      </c>
+      <c r="N96" s="13">
         <v>72</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="O96" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P96" s="13">
         <v>1.95</v>
       </c>
       <c r="Q96" s="1">
         <v>156422</v>
       </c>
-      <c r="R96" s="1">
+      <c r="R96" s="13">
         <v>653899622978</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S96" s="13">
         <v>62297</v>
       </c>
-      <c r="U96" s="1" t="s">
+      <c r="U96" s="13" t="s">
         <v>171</v>
       </c>
       <c r="AD96" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:97">
+      <c r="A97" s="14">
         <v>5323080092</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M97" s="13">
         <v>2</v>
       </c>
-      <c r="N97" s="1">
+      <c r="N97" s="13">
         <v>24</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="O97" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P97" s="13">
         <v>1.95</v>
       </c>
       <c r="Q97" s="1">
         <v>156421</v>
       </c>
-      <c r="R97" s="1">
+      <c r="R97" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S97" s="13">
         <v>62296</v>
       </c>
-      <c r="U97" s="1" t="s">
+      <c r="U97" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD97" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:97">
+      <c r="A98" s="14">
         <v>5323080092</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98" s="13">
         <v>3</v>
       </c>
-      <c r="N98" s="1">
+      <c r="N98" s="13">
         <v>120</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="O98" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P98" s="13">
         <v>1.95</v>
       </c>
       <c r="Q98" s="1">
         <v>156423</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R98" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S98" s="13">
         <v>62298</v>
       </c>
-      <c r="U98" s="1" t="s">
+      <c r="U98" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD98" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:97">
+      <c r="A99" s="14">
         <v>5323080092</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99" s="13">
         <v>4</v>
       </c>
-      <c r="N99" s="1">
+      <c r="N99" s="13">
         <v>96</v>
       </c>
-      <c r="O99" s="1" t="s">
+      <c r="O99" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P99" s="13">
         <v>1.95</v>
       </c>
       <c r="Q99" s="1">
         <v>156420</v>
       </c>
-      <c r="R99" s="1">
+      <c r="R99" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S99" s="1">
+      <c r="S99" s="13">
         <v>62295</v>
       </c>
-      <c r="U99" s="1" t="s">
+      <c r="U99" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD99" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:97">
+      <c r="A100" s="14">
         <v>5323080092</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M100" s="13">
         <v>5</v>
       </c>
-      <c r="N100" s="1">
+      <c r="N100" s="13">
         <v>144</v>
       </c>
-      <c r="O100" s="1" t="s">
+      <c r="O100" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P100" s="13">
         <v>1.95</v>
       </c>
       <c r="Q100" s="1">
         <v>156424</v>
       </c>
-      <c r="R100" s="1">
+      <c r="R100" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S100" s="1">
+      <c r="S100" s="13">
         <v>62299</v>
       </c>
-      <c r="U100" s="1" t="s">
+      <c r="U100" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD100" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:97">
+      <c r="A101" s="14">
         <v>5323080092</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="13">
         <v>6</v>
       </c>
-      <c r="N101" s="1">
+      <c r="N101" s="13">
         <v>24</v>
       </c>
-      <c r="O101" s="1" t="s">
+      <c r="O101" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P101" s="13">
         <v>1.95</v>
       </c>
       <c r="Q101" s="1">
         <v>156419</v>
       </c>
-      <c r="R101" s="1">
+      <c r="R101" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S101" s="1">
+      <c r="S101" s="13">
         <v>62294</v>
       </c>
-      <c r="U101" s="1" t="s">
+      <c r="U101" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:97">
+      <c r="A102" s="14">
         <v>5523080092</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E102" s="1">
         <v>5523080092</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L102" s="1">
@@ -7203,244 +7320,244 @@
       <c r="AD102" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE102" s="1" t="s">
+      <c r="AE102" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF102" s="1" t="s">
+      <c r="AF102" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK102" s="1">
+      <c r="AK102" s="14">
         <v>3833</v>
       </c>
       <c r="AP102" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR102" s="1" t="s">
+      <c r="AR102" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS102" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC102" s="1" t="s">
+      <c r="BC102" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK102" s="1" t="s">
+      <c r="BK102" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="BL102" s="1" t="s">
+      <c r="BL102" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="BN102" s="1" t="s">
+      <c r="BN102" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="BO102" s="1" t="s">
+      <c r="BO102" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="BP102" s="1">
+      <c r="BP102" s="14">
         <v>40475</v>
       </c>
-      <c r="BQ102" s="1" t="s">
+      <c r="BQ102" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA102" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CS102" s="1">
+      <c r="CS102" s="14">
         <v>468</v>
       </c>
     </row>
-    <row r="103" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:97">
+      <c r="A103" s="14">
         <v>5523080092</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M103" s="1">
-        <v>1</v>
-      </c>
-      <c r="N103" s="1">
+      <c r="M103" s="13">
+        <v>1</v>
+      </c>
+      <c r="N103" s="13">
         <v>48</v>
       </c>
-      <c r="O103" s="1" t="s">
+      <c r="O103" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P103" s="13">
         <v>1.95</v>
       </c>
       <c r="Q103" s="1">
         <v>156422</v>
       </c>
-      <c r="R103" s="1">
+      <c r="R103" s="13">
         <v>653899622978</v>
       </c>
-      <c r="S103" s="1">
+      <c r="S103" s="13">
         <v>62297</v>
       </c>
-      <c r="U103" s="1" t="s">
+      <c r="U103" s="13" t="s">
         <v>171</v>
       </c>
       <c r="AD103" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:97">
+      <c r="A104" s="14">
         <v>5523080092</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104" s="13">
         <v>2</v>
       </c>
-      <c r="N104" s="1">
+      <c r="N104" s="13">
         <v>96</v>
       </c>
-      <c r="O104" s="1" t="s">
+      <c r="O104" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P104" s="1">
+      <c r="P104" s="13">
         <v>1.95</v>
       </c>
       <c r="Q104" s="1">
         <v>156421</v>
       </c>
-      <c r="R104" s="1">
+      <c r="R104" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S104" s="1">
+      <c r="S104" s="13">
         <v>62296</v>
       </c>
-      <c r="U104" s="1" t="s">
+      <c r="U104" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD104" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:97">
+      <c r="A105" s="14">
         <v>5523080092</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105" s="13">
         <v>3</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N105" s="13">
         <v>24</v>
       </c>
-      <c r="O105" s="1" t="s">
+      <c r="O105" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P105" s="13">
         <v>1.95</v>
       </c>
       <c r="Q105" s="1">
         <v>156423</v>
       </c>
-      <c r="R105" s="1">
+      <c r="R105" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S105" s="1">
+      <c r="S105" s="13">
         <v>62298</v>
       </c>
-      <c r="U105" s="1" t="s">
+      <c r="U105" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD105" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:97">
+      <c r="A106" s="14">
         <v>5523080092</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M106" s="13">
         <v>4</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N106" s="13">
         <v>48</v>
       </c>
-      <c r="O106" s="1" t="s">
+      <c r="O106" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P106" s="13">
         <v>1.95</v>
       </c>
       <c r="Q106" s="1">
         <v>156420</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R106" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S106" s="13">
         <v>62295</v>
       </c>
-      <c r="U106" s="1" t="s">
+      <c r="U106" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD106" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:97">
+      <c r="A107" s="14">
         <v>5523080092</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M107" s="1">
+      <c r="M107" s="13">
         <v>5</v>
       </c>
-      <c r="N107" s="1">
+      <c r="N107" s="13">
         <v>24</v>
       </c>
-      <c r="O107" s="1" t="s">
+      <c r="O107" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="13">
         <v>1.95</v>
       </c>
       <c r="Q107" s="1">
         <v>156419</v>
       </c>
-      <c r="R107" s="1">
+      <c r="R107" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S107" s="1">
+      <c r="S107" s="13">
         <v>62294</v>
       </c>
-      <c r="U107" s="1" t="s">
+      <c r="U107" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD107" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:97">
+      <c r="A108" s="14">
         <v>5723080102</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E108" s="1">
         <v>5723080102</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L108" s="1">
@@ -7449,209 +7566,209 @@
       <c r="AD108" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE108" s="1" t="s">
+      <c r="AE108" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF108" s="1" t="s">
+      <c r="AF108" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK108" s="1">
+      <c r="AK108" s="14">
         <v>3833</v>
       </c>
       <c r="AP108" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR108" s="1" t="s">
+      <c r="AR108" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS108" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC108" s="1" t="s">
+      <c r="BC108" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK108" s="1" t="s">
+      <c r="BK108" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="BL108" s="1" t="s">
+      <c r="BL108" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="BN108" s="1" t="s">
+      <c r="BN108" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="BO108" s="1" t="s">
+      <c r="BO108" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="BP108" s="1" t="s">
+      <c r="BP108" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="BQ108" s="1" t="s">
+      <c r="BQ108" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CS108" s="1">
+      <c r="CS108" s="14">
         <v>374.4</v>
       </c>
     </row>
-    <row r="109" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:97">
+      <c r="A109" s="14">
         <v>5723080102</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M109" s="1">
-        <v>1</v>
-      </c>
-      <c r="N109" s="1">
+      <c r="M109" s="13">
+        <v>1</v>
+      </c>
+      <c r="N109" s="13">
         <v>48</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="O109" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P109" s="13">
         <v>1.95</v>
       </c>
       <c r="Q109" s="1">
         <v>156423</v>
       </c>
-      <c r="R109" s="1">
+      <c r="R109" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S109" s="1">
+      <c r="S109" s="13">
         <v>62298</v>
       </c>
-      <c r="U109" s="1" t="s">
+      <c r="U109" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD109" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:97">
+      <c r="A110" s="14">
         <v>5723080102</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M110" s="13">
         <v>2</v>
       </c>
-      <c r="N110" s="1">
+      <c r="N110" s="13">
         <v>48</v>
       </c>
-      <c r="O110" s="1" t="s">
+      <c r="O110" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P110" s="1">
+      <c r="P110" s="13">
         <v>1.95</v>
       </c>
       <c r="Q110" s="1">
         <v>156420</v>
       </c>
-      <c r="R110" s="1">
+      <c r="R110" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S110" s="1">
+      <c r="S110" s="13">
         <v>62295</v>
       </c>
-      <c r="U110" s="1" t="s">
+      <c r="U110" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD110" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:97">
+      <c r="A111" s="14">
         <v>5723080102</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M111" s="1">
+      <c r="M111" s="13">
         <v>3</v>
       </c>
-      <c r="N111" s="1">
+      <c r="N111" s="13">
         <v>24</v>
       </c>
-      <c r="O111" s="1" t="s">
+      <c r="O111" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P111" s="13">
         <v>1.95</v>
       </c>
       <c r="Q111" s="1">
         <v>156424</v>
       </c>
-      <c r="R111" s="1">
+      <c r="R111" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S111" s="1">
+      <c r="S111" s="13">
         <v>62299</v>
       </c>
-      <c r="U111" s="1" t="s">
+      <c r="U111" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD111" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:97">
+      <c r="A112" s="14">
         <v>5723080102</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M112" s="1">
+      <c r="M112" s="13">
         <v>4</v>
       </c>
-      <c r="N112" s="1">
+      <c r="N112" s="13">
         <v>72</v>
       </c>
-      <c r="O112" s="1" t="s">
+      <c r="O112" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P112" s="1">
+      <c r="P112" s="13">
         <v>1.95</v>
       </c>
       <c r="Q112" s="1">
         <v>156419</v>
       </c>
-      <c r="R112" s="1">
+      <c r="R112" s="13">
         <v>653899622947</v>
       </c>
-      <c r="S112" s="1">
+      <c r="S112" s="13">
         <v>62294</v>
       </c>
-      <c r="U112" s="1" t="s">
+      <c r="U112" s="13" t="s">
         <v>142</v>
       </c>
       <c r="AD112" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:97">
+      <c r="A113" s="14">
         <v>5823080094</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E113" s="1">
         <v>5823080094</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L113" s="1">
@@ -7660,186 +7777,186 @@
       <c r="AD113" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE113" s="1" t="s">
+      <c r="AE113" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AF113" s="1" t="s">
+      <c r="AF113" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AK113" s="1">
+      <c r="AK113" s="14">
         <v>3833</v>
       </c>
       <c r="AP113" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR113" s="1" t="s">
+      <c r="AR113" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AS113" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BC113" s="1" t="s">
+      <c r="BC113" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BK113" s="1" t="s">
+      <c r="BK113" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="BL113" s="1" t="s">
+      <c r="BL113" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="BN113" s="1" t="s">
+      <c r="BN113" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="BO113" s="1" t="s">
+      <c r="BO113" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="BP113" s="1">
+      <c r="BP113" s="14">
         <v>36832</v>
       </c>
-      <c r="BQ113" s="1" t="s">
+      <c r="BQ113" s="14" t="s">
         <v>135</v>
       </c>
       <c r="CA113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CS113" s="1">
+      <c r="CS113" s="14">
         <v>280.8</v>
       </c>
     </row>
-    <row r="114" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:97">
+      <c r="A114" s="14">
         <v>5823080094</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M114" s="1">
-        <v>1</v>
-      </c>
-      <c r="N114" s="1">
+      <c r="M114" s="13">
+        <v>1</v>
+      </c>
+      <c r="N114" s="13">
         <v>24</v>
       </c>
-      <c r="O114" s="1" t="s">
+      <c r="O114" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P114" s="1">
+      <c r="P114" s="13">
         <v>1.95</v>
       </c>
       <c r="Q114" s="1">
         <v>156421</v>
       </c>
-      <c r="R114" s="1">
+      <c r="R114" s="13">
         <v>653899622961</v>
       </c>
-      <c r="S114" s="1">
+      <c r="S114" s="13">
         <v>62296</v>
       </c>
-      <c r="U114" s="1" t="s">
+      <c r="U114" s="13" t="s">
         <v>146</v>
       </c>
       <c r="AD114" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:97">
+      <c r="A115" s="14">
         <v>5823080094</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M115" s="1">
+      <c r="M115" s="13">
         <v>2</v>
       </c>
-      <c r="N115" s="1">
+      <c r="N115" s="13">
         <v>24</v>
       </c>
-      <c r="O115" s="1" t="s">
+      <c r="O115" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P115" s="13">
         <v>1.95</v>
       </c>
       <c r="Q115" s="1">
         <v>156423</v>
       </c>
-      <c r="R115" s="1">
+      <c r="R115" s="13">
         <v>653899622985</v>
       </c>
-      <c r="S115" s="1">
+      <c r="S115" s="13">
         <v>62298</v>
       </c>
-      <c r="U115" s="1" t="s">
+      <c r="U115" s="13" t="s">
         <v>138</v>
       </c>
       <c r="AD115" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:97">
+      <c r="A116" s="14">
         <v>5823080094</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M116" s="1">
+      <c r="M116" s="13">
         <v>3</v>
       </c>
-      <c r="N116" s="1">
+      <c r="N116" s="13">
         <v>48</v>
       </c>
-      <c r="O116" s="1" t="s">
+      <c r="O116" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P116" s="1">
+      <c r="P116" s="13">
         <v>1.95</v>
       </c>
       <c r="Q116" s="1">
         <v>156420</v>
       </c>
-      <c r="R116" s="1">
+      <c r="R116" s="13">
         <v>653899622954</v>
       </c>
-      <c r="S116" s="1">
+      <c r="S116" s="13">
         <v>62295</v>
       </c>
-      <c r="U116" s="1" t="s">
+      <c r="U116" s="13" t="s">
         <v>140</v>
       </c>
       <c r="AD116" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:97">
+      <c r="A117" s="14">
         <v>5823080094</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M117" s="1">
+      <c r="M117" s="13">
         <v>4</v>
       </c>
-      <c r="N117" s="1">
+      <c r="N117" s="13">
         <v>48</v>
       </c>
-      <c r="O117" s="1" t="s">
+      <c r="O117" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P117" s="1">
+      <c r="P117" s="13">
         <v>1.95</v>
       </c>
       <c r="Q117" s="1">
         <v>156424</v>
       </c>
-      <c r="R117" s="1">
+      <c r="R117" s="13">
         <v>653899622992</v>
       </c>
-      <c r="S117" s="1">
+      <c r="S117" s="13">
         <v>62299</v>
       </c>
-      <c r="U117" s="1" t="s">
+      <c r="U117" s="13" t="s">
         <v>141</v>
       </c>
       <c r="AD117" s="1" t="s">
@@ -7854,25 +7971,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5816AE-9F6C-D84A-A49D-20538D0E8D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="CV10" sqref="CV10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="3" width="28.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="25.33203125" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="25.28515625" customWidth="1"/>
     <col min="47" max="98" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98">
       <c r="A1" s="2" t="s">
         <v>332</v>
       </c>
@@ -8169,7 +8286,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98">
       <c r="A2" s="6">
         <v>62297</v>
       </c>
@@ -8365,7 +8482,7 @@
       <c r="CS2" s="2"/>
       <c r="CT2" s="2"/>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98">
       <c r="A3" s="6" t="s">
         <v>320</v>
       </c>
@@ -8557,7 +8674,7 @@
       <c r="CS3" s="2"/>
       <c r="CT3" s="2"/>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98">
       <c r="A4" s="6">
         <v>62299</v>
       </c>
@@ -8755,7 +8872,7 @@
       <c r="CS4" s="2"/>
       <c r="CT4" s="2"/>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98">
       <c r="A5" s="8" t="s">
         <v>313</v>
       </c>
@@ -8947,7 +9064,7 @@
       <c r="CS5" s="2"/>
       <c r="CT5" s="2"/>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98">
       <c r="A6" s="6" t="s">
         <v>490</v>
       </c>
@@ -9139,7 +9256,7 @@
       <c r="CS6" s="2"/>
       <c r="CT6" s="2"/>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98">
       <c r="A7" s="6">
         <v>62296</v>
       </c>
@@ -9337,7 +9454,7 @@
       <c r="CS7" s="2"/>
       <c r="CT7" s="2"/>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98">
       <c r="A8" s="6" t="s">
         <v>317</v>
       </c>
@@ -9529,7 +9646,7 @@
       <c r="CS8" s="2"/>
       <c r="CT8" s="2"/>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98">
       <c r="A9" s="6">
         <v>62298</v>
       </c>
@@ -9725,7 +9842,7 @@
       <c r="CS9" s="2"/>
       <c r="CT9" s="2"/>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98">
       <c r="A10" s="8" t="s">
         <v>306</v>
       </c>
@@ -9917,7 +10034,7 @@
       <c r="CS10" s="2"/>
       <c r="CT10" s="2"/>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98">
       <c r="A11" s="6">
         <v>62295</v>
       </c>
@@ -10115,7 +10232,7 @@
       <c r="CS11" s="2"/>
       <c r="CT11" s="2"/>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98">
       <c r="A12" s="8" t="s">
         <v>307</v>
       </c>
@@ -10307,7 +10424,7 @@
       <c r="CS12" s="2"/>
       <c r="CT12" s="2"/>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98">
       <c r="A13" s="6" t="s">
         <v>489</v>
       </c>
@@ -10499,7 +10616,7 @@
       <c r="CS13" s="2"/>
       <c r="CT13" s="2"/>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98">
       <c r="A14" s="6" t="s">
         <v>315</v>
       </c>
@@ -10691,7 +10808,7 @@
       <c r="CS14" s="2"/>
       <c r="CT14" s="2"/>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98">
       <c r="A15" s="6">
         <v>62294</v>
       </c>
@@ -10887,7 +11004,7 @@
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98">
       <c r="A16" s="8" t="s">
         <v>309</v>
       </c>
@@ -11083,19 +11200,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBE2504-8960-B44E-AA88-FE92CF2DB5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>333</v>
       </c>
@@ -11103,7 +11220,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>436</v>
       </c>
@@ -11111,13 +11228,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>438</v>
       </c>
@@ -11125,7 +11242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>439</v>
       </c>
@@ -11133,7 +11250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>440</v>
       </c>
@@ -11141,7 +11258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>441</v>
       </c>
@@ -11149,7 +11266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>442</v>
       </c>
@@ -11157,7 +11274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>443</v>
       </c>
@@ -11165,7 +11282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>444</v>
       </c>
@@ -11173,7 +11290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>445</v>
       </c>
@@ -11181,7 +11298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>446</v>
       </c>
@@ -11189,7 +11306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>447</v>
       </c>
@@ -11197,7 +11314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>448</v>
       </c>
@@ -11205,7 +11322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>449</v>
       </c>
@@ -11213,7 +11330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>450</v>
       </c>
@@ -11221,7 +11338,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>451</v>
       </c>
@@ -11229,7 +11346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>452</v>
       </c>
@@ -11237,7 +11354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>433</v>
       </c>
@@ -11245,7 +11362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>453</v>
       </c>
@@ -11253,7 +11370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>454</v>
       </c>
@@ -11261,7 +11378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>455</v>
       </c>
@@ -11269,7 +11386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>434</v>
       </c>
@@ -11277,7 +11394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>456</v>
       </c>
@@ -11285,7 +11402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>457</v>
       </c>
@@ -11293,7 +11410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>458</v>
       </c>
@@ -11301,7 +11418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>459</v>
       </c>
@@ -11309,7 +11426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>460</v>
       </c>
@@ -11317,7 +11434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>461</v>
       </c>
@@ -11325,7 +11442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>462</v>
       </c>
@@ -11333,7 +11450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>463</v>
       </c>
@@ -11341,7 +11458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>464</v>
       </c>
@@ -11349,7 +11466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>465</v>
       </c>
@@ -11357,7 +11474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>466</v>
       </c>
@@ -11365,7 +11482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>467</v>
       </c>
@@ -11373,7 +11490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>468</v>
       </c>
@@ -11381,7 +11498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>469</v>
       </c>
@@ -11389,7 +11506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>470</v>
       </c>
@@ -11403,20 +11520,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D1AE84-8E00-0142-A6E2-0AEAF08E8A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="5"/>
-    <col min="59" max="59" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5"/>
+    <col min="59" max="59" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59">
       <c r="A1" s="2" t="s">
         <v>235</v>
       </c>
@@ -11595,7 +11714,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59">
       <c r="A2" s="2" t="s">
         <v>294</v>
       </c>
@@ -11669,7 +11788,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59">
       <c r="A3" s="2" t="s">
         <v>301</v>
       </c>
@@ -11722,7 +11841,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59">
       <c r="A4" s="2" t="s">
         <v>301</v>
       </c>
@@ -11775,7 +11894,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59">
       <c r="A5" s="2" t="s">
         <v>301</v>
       </c>
@@ -11828,7 +11947,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59">
       <c r="A6" s="2" t="s">
         <v>301</v>
       </c>
@@ -11881,7 +12000,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59">
       <c r="A7" s="2" t="s">
         <v>294</v>
       </c>
@@ -11954,7 +12073,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59">
       <c r="A8" s="2" t="s">
         <v>301</v>
       </c>
@@ -12003,7 +12122,7 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59">
       <c r="A9" s="2" t="s">
         <v>301</v>
       </c>
@@ -12052,7 +12171,7 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59">
       <c r="A10" s="2" t="s">
         <v>301</v>
       </c>
@@ -12101,7 +12220,7 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59">
       <c r="A11" s="2" t="s">
         <v>301</v>
       </c>
@@ -12150,7 +12269,7 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59">
       <c r="A12" s="2" t="s">
         <v>301</v>
       </c>
@@ -12199,7 +12318,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59">
       <c r="A13" s="2" t="s">
         <v>294</v>
       </c>
@@ -12272,7 +12391,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59">
       <c r="A14" s="2" t="s">
         <v>301</v>
       </c>
@@ -12321,7 +12440,7 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59">
       <c r="A15" s="2" t="s">
         <v>301</v>
       </c>
@@ -12370,7 +12489,7 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59">
       <c r="A16" s="2" t="s">
         <v>301</v>
       </c>
@@ -12419,7 +12538,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59">
       <c r="A17" s="2" t="s">
         <v>294</v>
       </c>
@@ -12492,7 +12611,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59">
       <c r="A18" s="2" t="s">
         <v>301</v>
       </c>
@@ -12541,7 +12660,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59">
       <c r="A19" s="2" t="s">
         <v>301</v>
       </c>
@@ -12590,7 +12709,7 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59">
       <c r="A20" s="2" t="s">
         <v>301</v>
       </c>
@@ -12639,7 +12758,7 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59">
       <c r="A21" s="2" t="s">
         <v>301</v>
       </c>
@@ -12688,7 +12807,7 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59">
       <c r="A22" s="2" t="s">
         <v>301</v>
       </c>
@@ -12737,7 +12856,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59">
       <c r="A23" s="2" t="s">
         <v>294</v>
       </c>
@@ -12810,7 +12929,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59">
       <c r="A24" s="2" t="s">
         <v>301</v>
       </c>
@@ -12859,7 +12978,7 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59">
       <c r="A25" s="2" t="s">
         <v>301</v>
       </c>
@@ -12908,7 +13027,7 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59">
       <c r="A26" s="2" t="s">
         <v>294</v>
       </c>
@@ -12981,7 +13100,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59">
       <c r="A27" s="2" t="s">
         <v>301</v>
       </c>
@@ -13030,7 +13149,7 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59">
       <c r="A28" s="2" t="s">
         <v>301</v>
       </c>
@@ -13079,7 +13198,7 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59">
       <c r="A29" s="2" t="s">
         <v>301</v>
       </c>
@@ -13128,7 +13247,7 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -13177,7 +13296,7 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59">
       <c r="A31" s="2" t="s">
         <v>294</v>
       </c>
@@ -13250,7 +13369,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59">
       <c r="A32" s="2" t="s">
         <v>301</v>
       </c>
@@ -13302,7 +13421,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59">
       <c r="A33" s="2" t="s">
         <v>294</v>
       </c>
@@ -13375,7 +13494,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59">
       <c r="A34" s="2" t="s">
         <v>301</v>
       </c>
@@ -13424,7 +13543,7 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59">
       <c r="A35" s="2" t="s">
         <v>301</v>
       </c>
@@ -13473,7 +13592,7 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59">
       <c r="A36" s="2" t="s">
         <v>301</v>
       </c>
@@ -13522,7 +13641,7 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59">
       <c r="A37" s="2" t="s">
         <v>301</v>
       </c>
@@ -13571,7 +13690,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59">
       <c r="A38" s="2" t="s">
         <v>301</v>
       </c>
@@ -13620,7 +13739,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59">
       <c r="A39" s="2" t="s">
         <v>294</v>
       </c>
@@ -13693,7 +13812,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59">
       <c r="A40" s="2" t="s">
         <v>301</v>
       </c>
@@ -13742,7 +13861,7 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59">
       <c r="A41" s="2" t="s">
         <v>301</v>
       </c>
@@ -13791,7 +13910,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59">
       <c r="A42" s="2" t="s">
         <v>301</v>
       </c>
@@ -13840,7 +13959,7 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59">
       <c r="A43" s="2" t="s">
         <v>294</v>
       </c>
@@ -13913,7 +14032,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:59">
       <c r="A44" s="2" t="s">
         <v>301</v>
       </c>
@@ -13962,7 +14081,7 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59">
       <c r="A45" s="2" t="s">
         <v>301</v>
       </c>
@@ -14011,7 +14130,7 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:59">
       <c r="A46" s="2" t="s">
         <v>301</v>
       </c>
@@ -14060,7 +14179,7 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59">
       <c r="A47" s="2" t="s">
         <v>301</v>
       </c>
@@ -14109,7 +14228,7 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:59">
       <c r="A48" s="2" t="s">
         <v>301</v>
       </c>
@@ -14158,7 +14277,7 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:59">
       <c r="A49" s="2" t="s">
         <v>294</v>
       </c>
@@ -14231,7 +14350,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:59">
       <c r="A50" s="2" t="s">
         <v>301</v>
       </c>
@@ -14280,7 +14399,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:59">
       <c r="A51" s="2" t="s">
         <v>301</v>
       </c>
@@ -14329,7 +14448,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:59">
       <c r="A52" s="2" t="s">
         <v>301</v>
       </c>
@@ -14378,7 +14497,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:59">
       <c r="A53" s="2" t="s">
         <v>301</v>
       </c>
@@ -14427,7 +14546,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:59">
       <c r="A54" s="2" t="s">
         <v>301</v>
       </c>
@@ -14476,7 +14595,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:59">
       <c r="A55" s="2" t="s">
         <v>294</v>
       </c>
@@ -14551,7 +14670,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:59">
       <c r="A56" s="2" t="s">
         <v>301</v>
       </c>
@@ -14600,7 +14719,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:59">
       <c r="A57" s="2" t="s">
         <v>301</v>
       </c>
@@ -14649,7 +14768,7 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:59">
       <c r="A58" s="2" t="s">
         <v>301</v>
       </c>
@@ -14698,7 +14817,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:59">
       <c r="A59" s="2" t="s">
         <v>301</v>
       </c>
@@ -14747,7 +14866,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:59">
       <c r="A60" s="2" t="s">
         <v>294</v>
       </c>
@@ -14820,7 +14939,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:59">
       <c r="A61" s="2" t="s">
         <v>301</v>
       </c>
@@ -14869,7 +14988,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:59">
       <c r="A62" s="2" t="s">
         <v>301</v>
       </c>
@@ -14918,7 +15037,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:59">
       <c r="A63" s="2" t="s">
         <v>301</v>
       </c>
@@ -14967,7 +15086,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:59">
       <c r="A64" s="2" t="s">
         <v>294</v>
       </c>
@@ -15040,7 +15159,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:59">
       <c r="A65" s="2" t="s">
         <v>301</v>
       </c>
@@ -15089,7 +15208,7 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:59">
       <c r="A66" s="2" t="s">
         <v>301</v>
       </c>
@@ -15138,7 +15257,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:59">
       <c r="A67" s="2" t="s">
         <v>294</v>
       </c>
@@ -15211,7 +15330,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:59">
       <c r="A68" s="2" t="s">
         <v>301</v>
       </c>
@@ -15260,7 +15379,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:59">
       <c r="A69" s="2" t="s">
         <v>301</v>
       </c>
@@ -15309,7 +15428,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:59">
       <c r="A70" s="2" t="s">
         <v>301</v>
       </c>
@@ -15358,7 +15477,7 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:59">
       <c r="A71" s="2" t="s">
         <v>294</v>
       </c>
@@ -15431,7 +15550,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:59">
       <c r="A72" s="2" t="s">
         <v>301</v>
       </c>
@@ -15480,7 +15599,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:59">
       <c r="A73" s="2" t="s">
         <v>301</v>
       </c>
@@ -15529,7 +15648,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:59">
       <c r="A74" s="2" t="s">
         <v>294</v>
       </c>
@@ -15602,7 +15721,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:59">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
@@ -15651,7 +15770,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:59">
       <c r="A76" s="2" t="s">
         <v>301</v>
       </c>
@@ -15700,7 +15819,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:59">
       <c r="A77" s="2" t="s">
         <v>301</v>
       </c>
@@ -15749,7 +15868,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:59">
       <c r="A78" s="2" t="s">
         <v>301</v>
       </c>
@@ -15798,7 +15917,7 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:59">
       <c r="A79" s="2" t="s">
         <v>294</v>
       </c>
@@ -15871,7 +15990,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:59">
       <c r="A80" s="2" t="s">
         <v>301</v>
       </c>
@@ -15920,7 +16039,7 @@
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:59">
       <c r="A81" s="2" t="s">
         <v>294</v>
       </c>
@@ -15993,7 +16112,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:59">
       <c r="A82" s="2" t="s">
         <v>301</v>
       </c>
@@ -16042,7 +16161,7 @@
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:59">
       <c r="A83" s="2" t="s">
         <v>301</v>
       </c>
@@ -16091,7 +16210,7 @@
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:59">
       <c r="A84" s="2" t="s">
         <v>301</v>
       </c>
@@ -16140,7 +16259,7 @@
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:59">
       <c r="A85" s="2" t="s">
         <v>301</v>
       </c>
@@ -16189,7 +16308,7 @@
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:59">
       <c r="A86" s="2" t="s">
         <v>294</v>
       </c>
@@ -16262,7 +16381,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:59">
       <c r="A87" s="2" t="s">
         <v>301</v>
       </c>
@@ -16311,7 +16430,7 @@
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:59">
       <c r="A88" s="2" t="s">
         <v>301</v>
       </c>
@@ -16360,7 +16479,7 @@
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:59">
       <c r="A89" s="2" t="s">
         <v>301</v>
       </c>
@@ -16409,7 +16528,7 @@
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:59">
       <c r="A90" s="2" t="s">
         <v>294</v>
       </c>
@@ -16482,7 +16601,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:59">
       <c r="A91" s="2" t="s">
         <v>301</v>
       </c>
@@ -16531,7 +16650,7 @@
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:59">
       <c r="A92" s="2" t="s">
         <v>301</v>
       </c>
@@ -16580,7 +16699,7 @@
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:59">
       <c r="A93" s="2" t="s">
         <v>301</v>
       </c>
@@ -16629,7 +16748,7 @@
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:59">
       <c r="A94" s="2" t="s">
         <v>301</v>
       </c>
@@ -16678,7 +16797,7 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:59">
       <c r="A95" s="2" t="s">
         <v>294</v>
       </c>
@@ -16751,7 +16870,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:59">
       <c r="A96" s="2" t="s">
         <v>301</v>
       </c>
@@ -16800,7 +16919,7 @@
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:59">
       <c r="A97" s="2" t="s">
         <v>301</v>
       </c>
@@ -16849,7 +16968,7 @@
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:59">
       <c r="A98" s="2" t="s">
         <v>301</v>
       </c>
@@ -16898,7 +17017,7 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:59">
       <c r="A99" s="2" t="s">
         <v>301</v>
       </c>
@@ -16947,7 +17066,7 @@
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:59">
       <c r="A100" s="2" t="s">
         <v>301</v>
       </c>
@@ -16996,7 +17115,7 @@
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:59">
       <c r="A101" s="2" t="s">
         <v>301</v>
       </c>
@@ -17045,7 +17164,7 @@
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:59">
       <c r="A102" s="2" t="s">
         <v>294</v>
       </c>
@@ -17118,7 +17237,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:59">
       <c r="A103" s="2" t="s">
         <v>301</v>
       </c>
@@ -17167,7 +17286,7 @@
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:59">
       <c r="A104" s="2" t="s">
         <v>301</v>
       </c>
@@ -17216,7 +17335,7 @@
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:59">
       <c r="A105" s="2" t="s">
         <v>301</v>
       </c>
@@ -17265,7 +17384,7 @@
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:59">
       <c r="A106" s="2" t="s">
         <v>301</v>
       </c>
@@ -17314,7 +17433,7 @@
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:59">
       <c r="A107" s="2" t="s">
         <v>301</v>
       </c>
@@ -17363,7 +17482,7 @@
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:59">
       <c r="A108" s="2" t="s">
         <v>294</v>
       </c>
@@ -17436,7 +17555,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:59">
       <c r="A109" s="2" t="s">
         <v>301</v>
       </c>
@@ -17485,7 +17604,7 @@
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
     </row>
-    <row r="110" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:59">
       <c r="A110" s="2" t="s">
         <v>301</v>
       </c>
@@ -17534,7 +17653,7 @@
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
     </row>
-    <row r="111" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:59">
       <c r="A111" s="2" t="s">
         <v>301</v>
       </c>
@@ -17583,7 +17702,7 @@
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
     </row>
-    <row r="112" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:59">
       <c r="A112" s="2" t="s">
         <v>301</v>
       </c>
@@ -17632,7 +17751,7 @@
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:59">
       <c r="A113" s="2" t="s">
         <v>294</v>
       </c>
@@ -17705,7 +17824,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:59">
       <c r="A114" s="2" t="s">
         <v>301</v>
       </c>
@@ -17754,7 +17873,7 @@
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:59">
       <c r="A115" s="2" t="s">
         <v>301</v>
       </c>
@@ -17803,7 +17922,7 @@
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:59">
       <c r="A116" s="2" t="s">
         <v>301</v>
       </c>
@@ -17852,7 +17971,7 @@
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:59">
       <c r="A117" s="2" t="s">
         <v>301</v>
       </c>
@@ -17901,7 +18020,7 @@
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:59">
       <c r="F118" s="3"/>
     </row>
   </sheetData>

--- a/Buc-ee's Sales Import-Sid.xlsx
+++ b/Buc-ee's Sales Import-Sid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="5985" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="documentDownloads20230807_2040_" sheetId="1" r:id="rId1"/>
@@ -2578,19 +2578,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2598,7 +2600,7 @@
     <col min="14" max="14" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -2617,20 +2619,20 @@
     <col min="34" max="34" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9" style="1"/>
     <col min="42" max="42" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="29.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31" style="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15" style="13" bestFit="1" customWidth="1"/>
@@ -2668,7 +2670,7 @@
     <col min="94" max="94" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="25.140625" style="1" bestFit="1" customWidth="1"/>
@@ -2700,25 +2702,25 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -2742,7 +2744,7 @@
       <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="12" t="s">
@@ -2802,7 +2804,7 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -2823,7 +2825,7 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
@@ -2832,16 +2834,16 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
@@ -2982,7 +2984,7 @@
       <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CS1" s="12" t="s">
         <v>96</v>
       </c>
       <c r="CT1" s="14" t="s">
@@ -3062,19 +3064,19 @@
       <c r="A2" s="13">
         <v>1723080057</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="13">
         <v>1723080057</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L2" s="1">
@@ -3089,13 +3091,13 @@
       <c r="AF2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="12">
         <v>3833</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AR2" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS2" s="1" t="s">
@@ -3125,7 +3127,7 @@
       <c r="CA2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS2" s="13">
+      <c r="CS2" s="12">
         <v>234</v>
       </c>
     </row>
@@ -3148,7 +3150,7 @@
       <c r="P3" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="12">
         <v>156423</v>
       </c>
       <c r="R3" s="12">
@@ -3183,7 +3185,7 @@
       <c r="P4" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="12">
         <v>156420</v>
       </c>
       <c r="R4" s="12">
@@ -3218,7 +3220,7 @@
       <c r="P5" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="12">
         <v>156424</v>
       </c>
       <c r="R5" s="12">
@@ -3253,7 +3255,7 @@
       <c r="P6" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="12">
         <v>156419</v>
       </c>
       <c r="R6" s="12">
@@ -3273,19 +3275,19 @@
       <c r="A7" s="13">
         <v>2223080094</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <v>2223080094</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L7" s="1">
@@ -3300,13 +3302,13 @@
       <c r="AF7" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK7" s="13">
+      <c r="AK7" s="12">
         <v>3833</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR7" s="13" t="s">
+      <c r="AR7" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS7" s="1" t="s">
@@ -3336,7 +3338,7 @@
       <c r="CA7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS7" s="13">
+      <c r="CS7" s="12">
         <v>468</v>
       </c>
     </row>
@@ -3359,7 +3361,7 @@
       <c r="P8" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="12">
         <v>156421</v>
       </c>
       <c r="R8" s="12">
@@ -3394,7 +3396,7 @@
       <c r="P9" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="12">
         <v>156423</v>
       </c>
       <c r="R9" s="12">
@@ -3429,7 +3431,7 @@
       <c r="P10" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="12">
         <v>156420</v>
       </c>
       <c r="R10" s="12">
@@ -3464,7 +3466,7 @@
       <c r="P11" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="12">
         <v>156424</v>
       </c>
       <c r="R11" s="12">
@@ -3499,7 +3501,7 @@
       <c r="P12" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="12">
         <v>156419</v>
       </c>
       <c r="R12" s="12">
@@ -3519,19 +3521,19 @@
       <c r="A13" s="13">
         <v>2623080058</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="13">
         <v>2623080058</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L13" s="1">
@@ -3546,13 +3548,13 @@
       <c r="AF13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK13" s="13">
+      <c r="AK13" s="12">
         <v>3833</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR13" s="13" t="s">
+      <c r="AR13" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS13" s="1" t="s">
@@ -3582,7 +3584,7 @@
       <c r="CA13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS13" s="13">
+      <c r="CS13" s="12">
         <v>280.8</v>
       </c>
     </row>
@@ -3605,7 +3607,7 @@
       <c r="P14" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="12">
         <v>156420</v>
       </c>
       <c r="R14" s="12">
@@ -3640,7 +3642,7 @@
       <c r="P15" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="12">
         <v>156424</v>
       </c>
       <c r="R15" s="12">
@@ -3675,7 +3677,7 @@
       <c r="P16" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="12">
         <v>156419</v>
       </c>
       <c r="R16" s="12">
@@ -3695,19 +3697,19 @@
       <c r="A17" s="13">
         <v>3023080047</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="13">
         <v>3023080047</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L17" s="1">
@@ -3722,13 +3724,13 @@
       <c r="AF17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK17" s="13">
+      <c r="AK17" s="12">
         <v>3833</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR17" s="13" t="s">
+      <c r="AR17" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS17" s="1" t="s">
@@ -3758,7 +3760,7 @@
       <c r="CA17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS17" s="13">
+      <c r="CS17" s="12">
         <v>514.79999999999995</v>
       </c>
     </row>
@@ -3781,7 +3783,7 @@
       <c r="P18" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="12">
         <v>156421</v>
       </c>
       <c r="R18" s="12">
@@ -3816,7 +3818,7 @@
       <c r="P19" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="12">
         <v>156423</v>
       </c>
       <c r="R19" s="12">
@@ -3851,7 +3853,7 @@
       <c r="P20" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="12">
         <v>156420</v>
       </c>
       <c r="R20" s="12">
@@ -3886,7 +3888,7 @@
       <c r="P21" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="12">
         <v>156424</v>
       </c>
       <c r="R21" s="12">
@@ -3921,7 +3923,7 @@
       <c r="P22" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="12">
         <v>156419</v>
       </c>
       <c r="R22" s="12">
@@ -3941,19 +3943,19 @@
       <c r="A23" s="13">
         <v>3423080079</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="13">
         <v>3423080079</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L23" s="1">
@@ -3968,13 +3970,13 @@
       <c r="AF23" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK23" s="13">
+      <c r="AK23" s="12">
         <v>3833</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR23" s="13" t="s">
+      <c r="AR23" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS23" s="1" t="s">
@@ -4004,7 +4006,7 @@
       <c r="CA23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS23" s="13">
+      <c r="CS23" s="12">
         <v>140.4</v>
       </c>
     </row>
@@ -4027,7 +4029,7 @@
       <c r="P24" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="12">
         <v>156420</v>
       </c>
       <c r="R24" s="12">
@@ -4062,7 +4064,7 @@
       <c r="P25" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="12">
         <v>156424</v>
       </c>
       <c r="R25" s="12">
@@ -4082,19 +4084,19 @@
       <c r="A26" s="13">
         <v>3523080090</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="13">
         <v>3523080090</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L26" s="1">
@@ -4109,13 +4111,13 @@
       <c r="AF26" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK26" s="13">
+      <c r="AK26" s="12">
         <v>3833</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR26" s="13" t="s">
+      <c r="AR26" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS26" s="1" t="s">
@@ -4145,7 +4147,7 @@
       <c r="CA26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS26" s="13">
+      <c r="CS26" s="12">
         <v>327.60000000000002</v>
       </c>
     </row>
@@ -4168,7 +4170,7 @@
       <c r="P27" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="12">
         <v>156423</v>
       </c>
       <c r="R27" s="12">
@@ -4203,7 +4205,7 @@
       <c r="P28" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="12">
         <v>156420</v>
       </c>
       <c r="R28" s="12">
@@ -4238,7 +4240,7 @@
       <c r="P29" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="12">
         <v>156424</v>
       </c>
       <c r="R29" s="12">
@@ -4273,7 +4275,7 @@
       <c r="P30" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="12">
         <v>156419</v>
       </c>
       <c r="R30" s="12">
@@ -4293,19 +4295,19 @@
       <c r="A31" s="13">
         <v>3623080077</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="13">
         <v>3623080077</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L31" s="1">
@@ -4320,13 +4322,13 @@
       <c r="AF31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK31" s="13">
+      <c r="AK31" s="12">
         <v>3833</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR31" s="13" t="s">
+      <c r="AR31" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS31" s="1" t="s">
@@ -4356,7 +4358,7 @@
       <c r="CA31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS31" s="13">
+      <c r="CS31" s="12">
         <v>46.8</v>
       </c>
     </row>
@@ -4379,7 +4381,7 @@
       <c r="P32" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="12">
         <v>156423</v>
       </c>
       <c r="R32" s="12">
@@ -4399,19 +4401,19 @@
       <c r="A33" s="13">
         <v>3723080080</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="13">
         <v>3723080080</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L33" s="1">
@@ -4426,13 +4428,13 @@
       <c r="AF33" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK33" s="13">
+      <c r="AK33" s="12">
         <v>3833</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR33" s="13" t="s">
+      <c r="AR33" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS33" s="1" t="s">
@@ -4462,7 +4464,7 @@
       <c r="CA33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS33" s="13">
+      <c r="CS33" s="12">
         <v>514.79999999999995</v>
       </c>
     </row>
@@ -4485,7 +4487,7 @@
       <c r="P34" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="12">
         <v>156421</v>
       </c>
       <c r="R34" s="12">
@@ -4520,7 +4522,7 @@
       <c r="P35" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="12">
         <v>156423</v>
       </c>
       <c r="R35" s="12">
@@ -4555,7 +4557,7 @@
       <c r="P36" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="12">
         <v>156420</v>
       </c>
       <c r="R36" s="12">
@@ -4590,7 +4592,7 @@
       <c r="P37" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="12">
         <v>156424</v>
       </c>
       <c r="R37" s="12">
@@ -4625,7 +4627,7 @@
       <c r="P38" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="12">
         <v>156419</v>
       </c>
       <c r="R38" s="12">
@@ -4645,19 +4647,19 @@
       <c r="A39" s="13">
         <v>3823080080</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="13">
         <v>3823080080</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L39" s="1">
@@ -4672,13 +4674,13 @@
       <c r="AF39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK39" s="13">
+      <c r="AK39" s="12">
         <v>3833</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR39" s="13" t="s">
+      <c r="AR39" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS39" s="1" t="s">
@@ -4708,7 +4710,7 @@
       <c r="CA39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS39" s="13">
+      <c r="CS39" s="12">
         <v>187.2</v>
       </c>
     </row>
@@ -4731,7 +4733,7 @@
       <c r="P40" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="12">
         <v>156423</v>
       </c>
       <c r="R40" s="12">
@@ -4766,7 +4768,7 @@
       <c r="P41" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="12">
         <v>156420</v>
       </c>
       <c r="R41" s="12">
@@ -4801,7 +4803,7 @@
       <c r="P42" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="12">
         <v>156419</v>
       </c>
       <c r="R42" s="12">
@@ -4821,19 +4823,19 @@
       <c r="A43" s="13">
         <v>3923080083</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="13">
         <v>3923080083</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L43" s="1">
@@ -4848,13 +4850,13 @@
       <c r="AF43" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK43" s="13">
+      <c r="AK43" s="12">
         <v>3833</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR43" s="13" t="s">
+      <c r="AR43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS43" s="1" t="s">
@@ -4884,7 +4886,7 @@
       <c r="CA43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS43" s="13">
+      <c r="CS43" s="12">
         <v>374.4</v>
       </c>
     </row>
@@ -4907,7 +4909,7 @@
       <c r="P44" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="12">
         <v>156422</v>
       </c>
       <c r="R44" s="12">
@@ -4942,7 +4944,7 @@
       <c r="P45" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="12">
         <v>156421</v>
       </c>
       <c r="R45" s="12">
@@ -4977,7 +4979,7 @@
       <c r="P46" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="12">
         <v>156423</v>
       </c>
       <c r="R46" s="12">
@@ -5012,7 +5014,7 @@
       <c r="P47" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="12">
         <v>156420</v>
       </c>
       <c r="R47" s="12">
@@ -5047,7 +5049,7 @@
       <c r="P48" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="12">
         <v>156424</v>
       </c>
       <c r="R48" s="12">
@@ -5067,19 +5069,19 @@
       <c r="A49" s="13">
         <v>4023080080</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="13">
         <v>4023080080</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L49" s="1">
@@ -5094,13 +5096,13 @@
       <c r="AF49" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK49" s="13">
+      <c r="AK49" s="12">
         <v>3833</v>
       </c>
       <c r="AP49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR49" s="13" t="s">
+      <c r="AR49" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS49" s="1" t="s">
@@ -5130,7 +5132,7 @@
       <c r="CA49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS49" s="13">
+      <c r="CS49" s="12">
         <v>280.8</v>
       </c>
     </row>
@@ -5153,7 +5155,7 @@
       <c r="P50" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="12">
         <v>156421</v>
       </c>
       <c r="R50" s="12">
@@ -5188,7 +5190,7 @@
       <c r="P51" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="12">
         <v>156423</v>
       </c>
       <c r="R51" s="12">
@@ -5223,7 +5225,7 @@
       <c r="P52" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="12">
         <v>156420</v>
       </c>
       <c r="R52" s="12">
@@ -5258,7 +5260,7 @@
       <c r="P53" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="12">
         <v>156424</v>
       </c>
       <c r="R53" s="12">
@@ -5293,7 +5295,7 @@
       <c r="P54" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="12">
         <v>156419</v>
       </c>
       <c r="R54" s="12">
@@ -5313,19 +5315,19 @@
       <c r="A55" s="13">
         <v>4223080101</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="13">
         <v>4223080101</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L55" s="1">
@@ -5340,13 +5342,13 @@
       <c r="AF55" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK55" s="13">
+      <c r="AK55" s="12">
         <v>3833</v>
       </c>
       <c r="AP55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR55" s="13" t="s">
+      <c r="AR55" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS55" s="1" t="s">
@@ -5376,7 +5378,7 @@
       <c r="CA55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CS55" s="13">
+      <c r="CS55" s="12">
         <v>795.6</v>
       </c>
     </row>
@@ -5399,7 +5401,7 @@
       <c r="P56" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="12">
         <v>156421</v>
       </c>
       <c r="R56" s="12">
@@ -5434,7 +5436,7 @@
       <c r="P57" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="12">
         <v>156423</v>
       </c>
       <c r="R57" s="12">
@@ -5469,7 +5471,7 @@
       <c r="P58" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="12">
         <v>156420</v>
       </c>
       <c r="R58" s="12">
@@ -5504,7 +5506,7 @@
       <c r="P59" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="12">
         <v>156424</v>
       </c>
       <c r="R59" s="12">
@@ -5524,19 +5526,19 @@
       <c r="A60" s="13">
         <v>4323080085</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="13">
         <v>4323080085</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L60" s="1">
@@ -5551,13 +5553,13 @@
       <c r="AF60" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK60" s="13">
+      <c r="AK60" s="12">
         <v>3833</v>
       </c>
       <c r="AP60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR60" s="13" t="s">
+      <c r="AR60" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS60" s="1" t="s">
@@ -5587,7 +5589,7 @@
       <c r="CA60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CS60" s="13">
+      <c r="CS60" s="12">
         <v>187.2</v>
       </c>
     </row>
@@ -5610,7 +5612,7 @@
       <c r="P61" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="12">
         <v>156423</v>
       </c>
       <c r="R61" s="12">
@@ -5645,7 +5647,7 @@
       <c r="P62" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="12">
         <v>156420</v>
       </c>
       <c r="R62" s="12">
@@ -5680,7 +5682,7 @@
       <c r="P63" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63" s="12">
         <v>156424</v>
       </c>
       <c r="R63" s="12">
@@ -5700,19 +5702,19 @@
       <c r="A64" s="13">
         <v>4423080078</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="13">
         <v>4423080078</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L64" s="1">
@@ -5727,13 +5729,13 @@
       <c r="AF64" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK64" s="13">
+      <c r="AK64" s="12">
         <v>3833</v>
       </c>
       <c r="AP64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR64" s="13" t="s">
+      <c r="AR64" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS64" s="1" t="s">
@@ -5763,7 +5765,7 @@
       <c r="CA64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CS64" s="13">
+      <c r="CS64" s="12">
         <v>93.6</v>
       </c>
     </row>
@@ -5786,7 +5788,7 @@
       <c r="P65" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65" s="12">
         <v>156423</v>
       </c>
       <c r="R65" s="12">
@@ -5821,7 +5823,7 @@
       <c r="P66" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="12">
         <v>156420</v>
       </c>
       <c r="R66" s="12">
@@ -5841,19 +5843,19 @@
       <c r="A67" s="13">
         <v>4523080099</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="13">
         <v>4523080099</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L67" s="1">
@@ -5868,13 +5870,13 @@
       <c r="AF67" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK67" s="13">
+      <c r="AK67" s="12">
         <v>3833</v>
       </c>
       <c r="AP67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR67" s="13" t="s">
+      <c r="AR67" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS67" s="1" t="s">
@@ -5904,7 +5906,7 @@
       <c r="CA67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CS67" s="13">
+      <c r="CS67" s="12">
         <v>374.4</v>
       </c>
     </row>
@@ -5927,7 +5929,7 @@
       <c r="P68" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68" s="12">
         <v>156421</v>
       </c>
       <c r="R68" s="12">
@@ -5962,7 +5964,7 @@
       <c r="P69" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69" s="12">
         <v>156420</v>
       </c>
       <c r="R69" s="12">
@@ -5997,7 +5999,7 @@
       <c r="P70" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70" s="12">
         <v>156424</v>
       </c>
       <c r="R70" s="12">
@@ -6017,19 +6019,19 @@
       <c r="A71" s="13">
         <v>4623080084</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="13">
         <v>4623080084</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L71" s="1">
@@ -6044,13 +6046,13 @@
       <c r="AF71" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK71" s="13">
+      <c r="AK71" s="12">
         <v>3833</v>
       </c>
       <c r="AP71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR71" s="13" t="s">
+      <c r="AR71" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS71" s="1" t="s">
@@ -6080,7 +6082,7 @@
       <c r="CA71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS71" s="13">
+      <c r="CS71" s="12">
         <v>140.4</v>
       </c>
     </row>
@@ -6103,7 +6105,7 @@
       <c r="P72" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72" s="12">
         <v>156423</v>
       </c>
       <c r="R72" s="12">
@@ -6138,7 +6140,7 @@
       <c r="P73" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="12">
         <v>156424</v>
       </c>
       <c r="R73" s="12">
@@ -6158,19 +6160,19 @@
       <c r="A74" s="13">
         <v>4723080090</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="13">
         <v>4723080090</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L74" s="1">
@@ -6185,13 +6187,13 @@
       <c r="AF74" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK74" s="13">
+      <c r="AK74" s="12">
         <v>3833</v>
       </c>
       <c r="AP74" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR74" s="13" t="s">
+      <c r="AR74" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS74" s="1" t="s">
@@ -6221,7 +6223,7 @@
       <c r="CA74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS74" s="13">
+      <c r="CS74" s="12">
         <v>234</v>
       </c>
     </row>
@@ -6244,7 +6246,7 @@
       <c r="P75" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="12">
         <v>156422</v>
       </c>
       <c r="R75" s="12">
@@ -6279,7 +6281,7 @@
       <c r="P76" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76" s="12">
         <v>156420</v>
       </c>
       <c r="R76" s="12">
@@ -6314,7 +6316,7 @@
       <c r="P77" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77" s="12">
         <v>156424</v>
       </c>
       <c r="R77" s="12">
@@ -6349,7 +6351,7 @@
       <c r="P78" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78" s="12">
         <v>156419</v>
       </c>
       <c r="R78" s="12">
@@ -6369,19 +6371,19 @@
       <c r="A79" s="13">
         <v>4823080067</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="13">
         <v>4823080067</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L79" s="1">
@@ -6396,13 +6398,13 @@
       <c r="AF79" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK79" s="13">
+      <c r="AK79" s="12">
         <v>3833</v>
       </c>
       <c r="AP79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR79" s="13" t="s">
+      <c r="AR79" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS79" s="1" t="s">
@@ -6432,7 +6434,7 @@
       <c r="CA79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CS79" s="13">
+      <c r="CS79" s="12">
         <v>46.8</v>
       </c>
     </row>
@@ -6455,7 +6457,7 @@
       <c r="P80" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80" s="12">
         <v>156419</v>
       </c>
       <c r="R80" s="12">
@@ -6475,19 +6477,19 @@
       <c r="A81" s="13">
         <v>5023080089</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="13">
         <v>5023080089</v>
       </c>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L81" s="1">
@@ -6502,13 +6504,13 @@
       <c r="AF81" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK81" s="13">
+      <c r="AK81" s="12">
         <v>3833</v>
       </c>
       <c r="AP81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR81" s="13" t="s">
+      <c r="AR81" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS81" s="1" t="s">
@@ -6538,7 +6540,7 @@
       <c r="CA81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CS81" s="13">
+      <c r="CS81" s="12">
         <v>468</v>
       </c>
     </row>
@@ -6561,7 +6563,7 @@
       <c r="P82" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="Q82" s="12">
         <v>156423</v>
       </c>
       <c r="R82" s="12">
@@ -6596,7 +6598,7 @@
       <c r="P83" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83" s="12">
         <v>156420</v>
       </c>
       <c r="R83" s="12">
@@ -6631,7 +6633,7 @@
       <c r="P84" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84" s="12">
         <v>156424</v>
       </c>
       <c r="R84" s="12">
@@ -6666,7 +6668,7 @@
       <c r="P85" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85" s="12">
         <v>156419</v>
       </c>
       <c r="R85" s="12">
@@ -6686,19 +6688,19 @@
       <c r="A86" s="13">
         <v>5123080087</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="13">
         <v>5123080087</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="H86" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L86" s="1">
@@ -6713,13 +6715,13 @@
       <c r="AF86" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK86" s="13">
+      <c r="AK86" s="12">
         <v>3833</v>
       </c>
       <c r="AP86" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR86" s="13" t="s">
+      <c r="AR86" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS86" s="1" t="s">
@@ -6749,7 +6751,7 @@
       <c r="CA86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CS86" s="13">
+      <c r="CS86" s="12">
         <v>468</v>
       </c>
     </row>
@@ -6772,7 +6774,7 @@
       <c r="P87" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87" s="12">
         <v>156423</v>
       </c>
       <c r="R87" s="12">
@@ -6807,7 +6809,7 @@
       <c r="P88" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88" s="12">
         <v>156420</v>
       </c>
       <c r="R88" s="12">
@@ -6842,7 +6844,7 @@
       <c r="P89" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89" s="12">
         <v>156424</v>
       </c>
       <c r="R89" s="12">
@@ -6862,19 +6864,19 @@
       <c r="A90" s="13">
         <v>5223080096</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="13">
         <v>5223080096</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L90" s="1">
@@ -6889,13 +6891,13 @@
       <c r="AF90" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK90" s="13">
+      <c r="AK90" s="12">
         <v>3833</v>
       </c>
       <c r="AP90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR90" s="13" t="s">
+      <c r="AR90" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS90" s="1" t="s">
@@ -6925,7 +6927,7 @@
       <c r="CA90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CS90" s="13">
+      <c r="CS90" s="12">
         <v>327.60000000000002</v>
       </c>
     </row>
@@ -6948,7 +6950,7 @@
       <c r="P91" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q91" s="12">
         <v>156422</v>
       </c>
       <c r="R91" s="12">
@@ -6983,7 +6985,7 @@
       <c r="P92" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="Q92" s="12">
         <v>156421</v>
       </c>
       <c r="R92" s="12">
@@ -7018,7 +7020,7 @@
       <c r="P93" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q93" s="12">
         <v>156420</v>
       </c>
       <c r="R93" s="12">
@@ -7053,7 +7055,7 @@
       <c r="P94" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q94" s="12">
         <v>156419</v>
       </c>
       <c r="R94" s="12">
@@ -7073,19 +7075,19 @@
       <c r="A95" s="13">
         <v>5323080092</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="13">
         <v>5323080092</v>
       </c>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I95" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L95" s="1">
@@ -7100,13 +7102,13 @@
       <c r="AF95" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK95" s="13">
+      <c r="AK95" s="12">
         <v>3833</v>
       </c>
       <c r="AP95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR95" s="13" t="s">
+      <c r="AR95" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS95" s="1" t="s">
@@ -7136,7 +7138,7 @@
       <c r="CA95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="CS95" s="13">
+      <c r="CS95" s="12">
         <v>936</v>
       </c>
     </row>
@@ -7159,7 +7161,7 @@
       <c r="P96" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q96" s="12">
         <v>156422</v>
       </c>
       <c r="R96" s="12">
@@ -7194,7 +7196,7 @@
       <c r="P97" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q97" s="12">
         <v>156421</v>
       </c>
       <c r="R97" s="12">
@@ -7229,7 +7231,7 @@
       <c r="P98" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q98" s="12">
         <v>156423</v>
       </c>
       <c r="R98" s="12">
@@ -7264,7 +7266,7 @@
       <c r="P99" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q99" s="12">
         <v>156420</v>
       </c>
       <c r="R99" s="12">
@@ -7299,7 +7301,7 @@
       <c r="P100" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="Q100" s="12">
         <v>156424</v>
       </c>
       <c r="R100" s="12">
@@ -7334,7 +7336,7 @@
       <c r="P101" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="Q101" s="12">
         <v>156419</v>
       </c>
       <c r="R101" s="12">
@@ -7354,19 +7356,19 @@
       <c r="A102" s="13">
         <v>5523080092</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="13">
         <v>5523080092</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="H102" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L102" s="1">
@@ -7381,13 +7383,13 @@
       <c r="AF102" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK102" s="13">
+      <c r="AK102" s="12">
         <v>3833</v>
       </c>
       <c r="AP102" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR102" s="13" t="s">
+      <c r="AR102" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS102" s="1" t="s">
@@ -7417,7 +7419,7 @@
       <c r="CA102" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CS102" s="13">
+      <c r="CS102" s="12">
         <v>468</v>
       </c>
     </row>
@@ -7440,7 +7442,7 @@
       <c r="P103" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="Q103" s="12">
         <v>156422</v>
       </c>
       <c r="R103" s="12">
@@ -7475,7 +7477,7 @@
       <c r="P104" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="Q104" s="12">
         <v>156421</v>
       </c>
       <c r="R104" s="12">
@@ -7510,7 +7512,7 @@
       <c r="P105" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="Q105" s="12">
         <v>156423</v>
       </c>
       <c r="R105" s="12">
@@ -7545,7 +7547,7 @@
       <c r="P106" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q106" s="12">
         <v>156420</v>
       </c>
       <c r="R106" s="12">
@@ -7580,7 +7582,7 @@
       <c r="P107" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q107" s="1">
+      <c r="Q107" s="12">
         <v>156419</v>
       </c>
       <c r="R107" s="12">
@@ -7600,19 +7602,19 @@
       <c r="A108" s="13">
         <v>5723080102</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="13">
         <v>5723080102</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="H108" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="I108" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L108" s="1">
@@ -7627,13 +7629,13 @@
       <c r="AF108" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK108" s="13">
+      <c r="AK108" s="12">
         <v>3833</v>
       </c>
       <c r="AP108" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR108" s="13" t="s">
+      <c r="AR108" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS108" s="1" t="s">
@@ -7663,7 +7665,7 @@
       <c r="CA108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CS108" s="13">
+      <c r="CS108" s="12">
         <v>374.4</v>
       </c>
     </row>
@@ -7686,7 +7688,7 @@
       <c r="P109" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q109" s="1">
+      <c r="Q109" s="12">
         <v>156423</v>
       </c>
       <c r="R109" s="12">
@@ -7721,7 +7723,7 @@
       <c r="P110" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q110" s="1">
+      <c r="Q110" s="12">
         <v>156420</v>
       </c>
       <c r="R110" s="12">
@@ -7756,7 +7758,7 @@
       <c r="P111" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q111" s="1">
+      <c r="Q111" s="12">
         <v>156424</v>
       </c>
       <c r="R111" s="12">
@@ -7791,7 +7793,7 @@
       <c r="P112" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q112" s="1">
+      <c r="Q112" s="12">
         <v>156419</v>
       </c>
       <c r="R112" s="12">
@@ -7811,19 +7813,19 @@
       <c r="A113" s="13">
         <v>5823080094</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="13">
         <v>5823080094</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="H113" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I113" s="13" t="s">
+      <c r="I113" s="12" t="s">
         <v>124</v>
       </c>
       <c r="L113" s="1">
@@ -7838,13 +7840,13 @@
       <c r="AF113" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AK113" s="13">
+      <c r="AK113" s="12">
         <v>3833</v>
       </c>
       <c r="AP113" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR113" s="13" t="s">
+      <c r="AR113" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AS113" s="1" t="s">
@@ -7874,7 +7876,7 @@
       <c r="CA113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CS113" s="13">
+      <c r="CS113" s="12">
         <v>280.8</v>
       </c>
     </row>
@@ -7897,7 +7899,7 @@
       <c r="P114" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q114" s="1">
+      <c r="Q114" s="12">
         <v>156421</v>
       </c>
       <c r="R114" s="12">
@@ -7932,7 +7934,7 @@
       <c r="P115" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="Q115" s="12">
         <v>156423</v>
       </c>
       <c r="R115" s="12">
@@ -7967,7 +7969,7 @@
       <c r="P116" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q116" s="1">
+      <c r="Q116" s="12">
         <v>156420</v>
       </c>
       <c r="R116" s="12">
@@ -8002,7 +8004,7 @@
       <c r="P117" s="12">
         <v>1.95</v>
       </c>
-      <c r="Q117" s="1">
+      <c r="Q117" s="12">
         <v>156424</v>
       </c>
       <c r="R117" s="12">
@@ -11610,7 +11612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
